--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -570,7 +570,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,13 +587,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -655,22 +661,22 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -679,17 +685,17 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1077,7 +1083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="64.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1089,7 +1095,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="47.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="44.25" customFormat="1" s="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -1099,7 +1105,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="63">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1111,7 +1117,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="48">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="44.25" customFormat="1" s="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -1121,7 +1127,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="34.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="31.5" customFormat="1" s="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -1131,7 +1137,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="66">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="57.75" customFormat="1" s="1">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1143,7 +1149,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42.75" customFormat="1" s="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>14</v>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>User Story</t>
   </si>
@@ -38,7 +38,16 @@
     <t xml:space="preserve">1. GIVEN I submit a request for the inventory WHEN products exist in the inventory THEN the system should return a list of products and a status code of 200 (OK) </t>
   </si>
   <si>
+    <t>JK, 3/20/24
+Admin is able to search for prodcts using the search bar
+not sure if it is abe to return the product, id number, quantity...</t>
+  </si>
+  <si>
     <t>2. GIVEN I submit a request for the inventory WHEN no products exist in the inventory THEN the system should return an empty list of products and a status code of 200 (OK)</t>
+  </si>
+  <si>
+    <t>JK, 3/20/24
+When no products are in inventory, the list is empty</t>
   </si>
   <si>
     <t>As a user, I want access to the funding basket so that I can view what items I would like to purchase</t>
@@ -47,7 +56,16 @@
     <t>**Given** I view the FUNDING BASKET, **when** there is nothing in it **then** it will tell me that no items are there</t>
   </si>
   <si>
+    <t>JK, 3/20/24
+When nothing is in the funding basket, the frontend works and shows that nothing is in it. A message has not yet been created stating that no items are there</t>
+  </si>
+  <si>
     <t>**GIVEN ** I add a need to the FUNDING BASKET, **WHEN** I logout, **THEN** my information will be saved (persistence) and return status code of 201 (PASS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JK, 3/20/24
+Currently no fuding basket
+</t>
   </si>
   <si>
     <t xml:space="preserve">**GIVEN ** I add a need to the FUNDING BASKET, **WHEN** I view the funding basket, **THEN** the item will appear </t>
@@ -62,471 +80,43 @@
     <t>GIVEN I checkout WHEN there are **no needs ** in the cart THEN the system should return a status code of 409 (CONFLICT)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">As a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>helper</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I want to see a list of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> so that I choose what to contribute to.</t>
-    </r>
+    <t>As a helper I want to see a list of needs  so that I choose what to contribute to.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Given that I am on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u-fund</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> site when I am not on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page then I must see a means to navigate to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page.</t>
-    </r>
+    <t>Given that I am on the  site when I am not on the Needs page then I must see a means to navigate to the Needs page</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Given that I am not on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page when I choose the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page then I am taken to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page.</t>
-    </r>
+    <t>✔</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Given that I am on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page when there are no </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cupboard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I see a message indicating that that there are no </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> available to contribute.</t>
-    </r>
+    <t xml:space="preserve">JK, 3/20/24
+</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Given that I am on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page when there are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cupboard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> then I see each </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>need</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and short description.</t>
-    </r>
+    <t/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Given that I am on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page when there are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cupboard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> then I see a means to add each </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>need</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to my funding </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>basket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
+    <t>Given that I am not on the Needs page when I choose the Needs page, then I am taken to the Needs page</t>
+  </si>
+  <si>
+    <t>JK, 3/20/24</t>
+  </si>
+  <si>
+    <t>Given that I am on the Needs page when there are no needs in the cupboard I see a message indicating that there are no needs available to contribute</t>
+  </si>
+  <si>
+    <t>JK, 3/20/24
+message not yet created</t>
+  </si>
+  <si>
+    <t>Given that I am on the Needs page when there are needs in the cupboard then I see each need and a short description</t>
+  </si>
+  <si>
+    <t>JK, 3/20/24
+clicking on the need does not seem to work currently</t>
+  </si>
+  <si>
+    <t>Given that I am on the Needs page when there are needs in the cupboard, then I see a means to add each need to my funding basket</t>
   </si>
   <si>
     <t>Instructions</t>
@@ -570,7 +160,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +171,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -598,15 +194,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -653,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -676,11 +272,17 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -688,10 +290,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1005,36 +607,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="106.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="106.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="11" t="s">
-        <v>21</v>
+      <c r="A1" s="13" t="s">
+        <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>22</v>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
+      <c r="A3" s="13" t="s">
+        <v>33</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>24</v>
+      <c r="B3" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="11" t="s">
-        <v>25</v>
+      <c r="A4" s="13" t="s">
+        <v>35</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>26</v>
+      <c r="B4" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1055,12 +657,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="60.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="60.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="60.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
@@ -1083,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="57.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="60.75" customFormat="1" s="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1091,129 +693,169 @@
         <v>6</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="44.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="57.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60.75" customFormat="1" s="1">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="44.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="31.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="56.25" customFormat="1" s="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="57.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="56.25" customFormat="1" s="1">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="56.25" customFormat="1" s="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="44.25" customFormat="1" s="1">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
+      <c r="A9" s="6" t="s">
+        <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="35.25" customFormat="1" s="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
+      <c r="A10" s="8" t="s">
+        <v>23</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="50.25" customFormat="1" s="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
-        <v>18</v>
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="35.25" customFormat="1" s="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
+      <c r="A12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="50.25" customFormat="1" s="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
+      <c r="A13" s="8" t="s">
+        <v>23</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="F13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="7"/>
       <c r="D14" s="3"/>
       <c r="E14" s="7"/>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>User Story</t>
   </si>
@@ -38,16 +38,18 @@
     <t xml:space="preserve">1. GIVEN I submit a request for the inventory WHEN products exist in the inventory THEN the system should return a list of products and a status code of 200 (OK) </t>
   </si>
   <si>
-    <t>JK, 3/20/24
-Admin is able to search for prodcts using the search bar
-not sure if it is abe to return the product, id number, quantity...</t>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>JK + ZK, 3/20/24
+Admin is able to add needs using the input bar; however, the product, id number, and quantities of each item to not show (front-end issue)</t>
   </si>
   <si>
     <t>2. GIVEN I submit a request for the inventory WHEN no products exist in the inventory THEN the system should return an empty list of products and a status code of 200 (OK)</t>
   </si>
   <si>
-    <t>JK, 3/20/24
-When no products are in inventory, the list is empty</t>
+    <t xml:space="preserve">JK + ZK, 3/20/24
+</t>
   </si>
   <si>
     <t>As a user, I want access to the funding basket so that I can view what items I would like to purchase</t>
@@ -56,19 +58,22 @@
     <t>**Given** I view the FUNDING BASKET, **when** there is nothing in it **then** it will tell me that no items are there</t>
   </si>
   <si>
-    <t>JK, 3/20/24
-When nothing is in the funding basket, the frontend works and shows that nothing is in it. A message has not yet been created stating that no items are there</t>
+    <t>JK +ZK, 3/20/24
+Currently no funding basket implemented in front-end.</t>
   </si>
   <si>
     <t>**GIVEN ** I add a need to the FUNDING BASKET, **WHEN** I logout, **THEN** my information will be saved (persistence) and return status code of 201 (PASS)</t>
   </si>
   <si>
-    <t xml:space="preserve">JK, 3/20/24
-Currently no fuding basket
-</t>
+    <t>JK + ZK, 3/20/24
+Currently no funding basket implemented in front-end; persistence not yet created.</t>
   </si>
   <si>
     <t xml:space="preserve">**GIVEN ** I add a need to the FUNDING BASKET, **WHEN** I view the funding basket, **THEN** the item will appear </t>
+  </si>
+  <si>
+    <t>JK + ZK, 3/20/24
+Currently no funding basket implemented in front-end; back-end works</t>
   </si>
   <si>
     <t>As a user, I want access to the checkout so that I can purchase the items in the funding basket.</t>
@@ -77,7 +82,15 @@
     <t xml:space="preserve"> GIVEN I hit checkout WHEN there are **needs ** in the checkout THEN the system should clear the checkout, subtract the **needs** in the cart from the **cupboard**, save to the persistent storage, and return status code of 201 (PASS)</t>
   </si>
   <si>
+    <t>JK + ZK, 3/20/24
+Currently no funding basket implemented in front-end; persistence and checkout not yet created.</t>
+  </si>
+  <si>
     <t>GIVEN I checkout WHEN there are **no needs ** in the cart THEN the system should return a status code of 409 (CONFLICT)</t>
+  </si>
+  <si>
+    <t>JK + ZK, 3/20/24
+Currently no front-end funding basket; checkout not yet created.</t>
   </si>
   <si>
     <t>As a helper I want to see a list of needs  so that I choose what to contribute to.</t>
@@ -86,14 +99,8 @@
     <t>Given that I am on the  site when I am not on the Needs page then I must see a means to navigate to the Needs page</t>
   </si>
   <si>
-    <t>✔</t>
-  </si>
-  <si>
     <t xml:space="preserve">JK, 3/20/24
 </t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Given that I am not on the Needs page when I choose the Needs page, then I am taken to the Needs page</t>
@@ -105,15 +112,15 @@
     <t>Given that I am on the Needs page when there are no needs in the cupboard I see a message indicating that there are no needs available to contribute</t>
   </si>
   <si>
-    <t>JK, 3/20/24
-message not yet created</t>
+    <t>JK + ZK, 3/20/24
+Message not yet created for empty dashboard.</t>
   </si>
   <si>
     <t>Given that I am on the Needs page when there are needs in the cupboard then I see each need and a short description</t>
   </si>
   <si>
-    <t>JK, 3/20/24
-clicking on the need does not seem to work currently</t>
+    <t>JK + ZK, 3/20/24
+Currently no description or text returned when user clicks on need.</t>
   </si>
   <si>
     <t>Given that I am on the Needs page when there are needs in the cupboard, then I see a means to add each need to my funding basket</t>
@@ -160,7 +167,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,12 +190,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -197,12 +198,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -249,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -266,16 +261,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -287,13 +273,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -607,36 +593,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="106.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="106.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="13" t="s">
-        <v>31</v>
+      <c r="A1" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -657,15 +643,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="60.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="60.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="60.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,4813 +678,4809 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="46.5" customFormat="1" s="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60.75" customFormat="1" s="1">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="46.5" customFormat="1" s="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="56.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="56.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="60.75" customFormat="1" s="1">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="56.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="44.25" customFormat="1" s="1">
-      <c r="A9" s="6" t="s">
-        <v>19</v>
+      <c r="A9" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="35.25" customFormat="1" s="1">
-      <c r="A10" s="8" t="s">
-        <v>23</v>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>21</v>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="50.25" customFormat="1" s="1">
-      <c r="A11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="35.25" customFormat="1" s="1">
-      <c r="A12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="50.25" customFormat="1" s="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="3" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="50.25" customFormat="1" s="1">
-      <c r="A13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="35.25" customFormat="1" s="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>21</v>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="50.25" customFormat="1" s="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="7"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="7"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="7"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="7"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="7"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="7"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="7"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="7"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="7"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="7"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="7"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="7"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="7"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="7"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="7"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="7"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="7"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="7"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="7"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="7"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="7"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="7"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="7"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="7"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="7"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="7"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="7"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="7"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="7"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="7"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="7"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="7"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="7"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="7"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="7"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="7"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="7"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="7"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="7"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="7"/>
+      <c r="C53" s="6"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="7"/>
+      <c r="E53" s="6"/>
       <c r="F53" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="7"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="7"/>
+      <c r="E54" s="6"/>
       <c r="F54" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="7"/>
+      <c r="C55" s="6"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="7"/>
+      <c r="E55" s="6"/>
       <c r="F55" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="7"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="7"/>
+      <c r="E56" s="6"/>
       <c r="F56" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="7"/>
+      <c r="C57" s="6"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="7"/>
+      <c r="E57" s="6"/>
       <c r="F57" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="7"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="7"/>
+      <c r="E58" s="6"/>
       <c r="F58" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="7"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="7"/>
+      <c r="E59" s="6"/>
       <c r="F59" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="7"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="7"/>
+      <c r="E60" s="6"/>
       <c r="F60" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="7"/>
+      <c r="C61" s="6"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="7"/>
+      <c r="E61" s="6"/>
       <c r="F61" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="7"/>
+      <c r="C62" s="6"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="7"/>
+      <c r="E62" s="6"/>
       <c r="F62" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="7"/>
+      <c r="C63" s="6"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="7"/>
+      <c r="E63" s="6"/>
       <c r="F63" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="7"/>
+      <c r="C64" s="6"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="7"/>
+      <c r="E64" s="6"/>
       <c r="F64" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="7"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="7"/>
+      <c r="E65" s="6"/>
       <c r="F65" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="7"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="7"/>
+      <c r="E66" s="6"/>
       <c r="F66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="7"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="7"/>
+      <c r="E67" s="6"/>
       <c r="F67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="7"/>
+      <c r="C68" s="6"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="7"/>
+      <c r="E68" s="6"/>
       <c r="F68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="7"/>
+      <c r="C69" s="6"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="7"/>
+      <c r="E69" s="6"/>
       <c r="F69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="7"/>
+      <c r="C70" s="6"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="7"/>
+      <c r="E70" s="6"/>
       <c r="F70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="7"/>
+      <c r="C71" s="6"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="7"/>
+      <c r="E71" s="6"/>
       <c r="F71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="7"/>
+      <c r="C72" s="6"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="7"/>
+      <c r="E72" s="6"/>
       <c r="F72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="7"/>
+      <c r="C73" s="6"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="7"/>
+      <c r="E73" s="6"/>
       <c r="F73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="7"/>
+      <c r="C74" s="6"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="7"/>
+      <c r="E74" s="6"/>
       <c r="F74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="7"/>
+      <c r="C75" s="6"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="7"/>
+      <c r="E75" s="6"/>
       <c r="F75" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="7"/>
+      <c r="C76" s="6"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="7"/>
+      <c r="E76" s="6"/>
       <c r="F76" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="7"/>
+      <c r="C77" s="6"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="7"/>
+      <c r="E77" s="6"/>
       <c r="F77" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="7"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="7"/>
+      <c r="E78" s="6"/>
       <c r="F78" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="7"/>
+      <c r="C79" s="6"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="7"/>
+      <c r="E79" s="6"/>
       <c r="F79" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="7"/>
+      <c r="C80" s="6"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="7"/>
+      <c r="E80" s="6"/>
       <c r="F80" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="7"/>
+      <c r="C81" s="6"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="7"/>
+      <c r="E81" s="6"/>
       <c r="F81" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="7"/>
+      <c r="C82" s="6"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="7"/>
+      <c r="E82" s="6"/>
       <c r="F82" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="7"/>
+      <c r="C83" s="6"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="7"/>
+      <c r="E83" s="6"/>
       <c r="F83" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="7"/>
+      <c r="C84" s="6"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="7"/>
+      <c r="E84" s="6"/>
       <c r="F84" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="7"/>
+      <c r="C85" s="6"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="7"/>
+      <c r="E85" s="6"/>
       <c r="F85" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="7"/>
+      <c r="C86" s="6"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="7"/>
+      <c r="E86" s="6"/>
       <c r="F86" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="7"/>
+      <c r="C87" s="6"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="7"/>
+      <c r="E87" s="6"/>
       <c r="F87" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="7"/>
+      <c r="C88" s="6"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="7"/>
+      <c r="E88" s="6"/>
       <c r="F88" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="7"/>
+      <c r="C89" s="6"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="7"/>
+      <c r="E89" s="6"/>
       <c r="F89" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="7"/>
+      <c r="C90" s="6"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="7"/>
+      <c r="E90" s="6"/>
       <c r="F90" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="7"/>
+      <c r="C91" s="6"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="7"/>
+      <c r="E91" s="6"/>
       <c r="F91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="7"/>
+      <c r="C92" s="6"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="7"/>
+      <c r="E92" s="6"/>
       <c r="F92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="7"/>
+      <c r="C93" s="6"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="7"/>
+      <c r="E93" s="6"/>
       <c r="F93" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="7"/>
+      <c r="C94" s="6"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="7"/>
+      <c r="E94" s="6"/>
       <c r="F94" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="7"/>
+      <c r="C95" s="6"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="7"/>
+      <c r="E95" s="6"/>
       <c r="F95" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="7"/>
+      <c r="C96" s="6"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="7"/>
+      <c r="E96" s="6"/>
       <c r="F96" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="7"/>
+      <c r="C97" s="6"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="7"/>
+      <c r="E97" s="6"/>
       <c r="F97" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="7"/>
+      <c r="C98" s="6"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="7"/>
+      <c r="E98" s="6"/>
       <c r="F98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="7"/>
+      <c r="C99" s="6"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="7"/>
+      <c r="E99" s="6"/>
       <c r="F99" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
-      <c r="C100" s="7"/>
+      <c r="C100" s="6"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="7"/>
+      <c r="E100" s="6"/>
       <c r="F100" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="7"/>
+      <c r="C101" s="6"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="7"/>
+      <c r="E101" s="6"/>
       <c r="F101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="7"/>
+      <c r="C102" s="6"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="7"/>
+      <c r="E102" s="6"/>
       <c r="F102" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="7"/>
+      <c r="C103" s="6"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="7"/>
+      <c r="E103" s="6"/>
       <c r="F103" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="7"/>
+      <c r="C104" s="6"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="7"/>
+      <c r="E104" s="6"/>
       <c r="F104" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="7"/>
+      <c r="C105" s="6"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="7"/>
+      <c r="E105" s="6"/>
       <c r="F105" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="7"/>
+      <c r="C106" s="6"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="7"/>
+      <c r="E106" s="6"/>
       <c r="F106" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
-      <c r="C107" s="7"/>
+      <c r="C107" s="6"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="7"/>
+      <c r="E107" s="6"/>
       <c r="F107" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="7"/>
+      <c r="C108" s="6"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="7"/>
+      <c r="E108" s="6"/>
       <c r="F108" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="7"/>
+      <c r="C109" s="6"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="7"/>
+      <c r="E109" s="6"/>
       <c r="F109" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="7"/>
+      <c r="C110" s="6"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="7"/>
+      <c r="E110" s="6"/>
       <c r="F110" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="7"/>
+      <c r="C111" s="6"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="7"/>
+      <c r="E111" s="6"/>
       <c r="F111" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="7"/>
+      <c r="C112" s="6"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="7"/>
+      <c r="E112" s="6"/>
       <c r="F112" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
-      <c r="C113" s="7"/>
+      <c r="C113" s="6"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="7"/>
+      <c r="E113" s="6"/>
       <c r="F113" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
-      <c r="C114" s="7"/>
+      <c r="C114" s="6"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="7"/>
+      <c r="E114" s="6"/>
       <c r="F114" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="7"/>
+      <c r="C115" s="6"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="7"/>
+      <c r="E115" s="6"/>
       <c r="F115" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="7"/>
+      <c r="C116" s="6"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="7"/>
+      <c r="E116" s="6"/>
       <c r="F116" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="7"/>
+      <c r="C117" s="6"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="7"/>
+      <c r="E117" s="6"/>
       <c r="F117" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="7"/>
+      <c r="C118" s="6"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="7"/>
+      <c r="E118" s="6"/>
       <c r="F118" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
-      <c r="C119" s="7"/>
+      <c r="C119" s="6"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="7"/>
+      <c r="E119" s="6"/>
       <c r="F119" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="7"/>
+      <c r="C120" s="6"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="7"/>
+      <c r="E120" s="6"/>
       <c r="F120" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
-      <c r="C121" s="7"/>
+      <c r="C121" s="6"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="7"/>
+      <c r="E121" s="6"/>
       <c r="F121" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
-      <c r="C122" s="7"/>
+      <c r="C122" s="6"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="7"/>
+      <c r="E122" s="6"/>
       <c r="F122" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
-      <c r="C123" s="7"/>
+      <c r="C123" s="6"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="7"/>
+      <c r="E123" s="6"/>
       <c r="F123" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
-      <c r="C124" s="7"/>
+      <c r="C124" s="6"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="7"/>
+      <c r="E124" s="6"/>
       <c r="F124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
-      <c r="C125" s="7"/>
+      <c r="C125" s="6"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="7"/>
+      <c r="E125" s="6"/>
       <c r="F125" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
-      <c r="C126" s="7"/>
+      <c r="C126" s="6"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="7"/>
+      <c r="E126" s="6"/>
       <c r="F126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
-      <c r="C127" s="7"/>
+      <c r="C127" s="6"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="7"/>
+      <c r="E127" s="6"/>
       <c r="F127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
-      <c r="C128" s="7"/>
+      <c r="C128" s="6"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="7"/>
+      <c r="E128" s="6"/>
       <c r="F128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
-      <c r="C129" s="7"/>
+      <c r="C129" s="6"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="7"/>
+      <c r="E129" s="6"/>
       <c r="F129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
-      <c r="C130" s="7"/>
+      <c r="C130" s="6"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="7"/>
+      <c r="E130" s="6"/>
       <c r="F130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
-      <c r="C131" s="7"/>
+      <c r="C131" s="6"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="7"/>
+      <c r="E131" s="6"/>
       <c r="F131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
-      <c r="C132" s="7"/>
+      <c r="C132" s="6"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="7"/>
+      <c r="E132" s="6"/>
       <c r="F132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
-      <c r="C133" s="7"/>
+      <c r="C133" s="6"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="7"/>
+      <c r="E133" s="6"/>
       <c r="F133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="7"/>
+      <c r="C134" s="6"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="7"/>
+      <c r="E134" s="6"/>
       <c r="F134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="7"/>
+      <c r="C135" s="6"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="7"/>
+      <c r="E135" s="6"/>
       <c r="F135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="7"/>
+      <c r="C136" s="6"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="7"/>
+      <c r="E136" s="6"/>
       <c r="F136" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
-      <c r="C137" s="7"/>
+      <c r="C137" s="6"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="7"/>
+      <c r="E137" s="6"/>
       <c r="F137" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="7"/>
+      <c r="C138" s="6"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="7"/>
+      <c r="E138" s="6"/>
       <c r="F138" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
-      <c r="C139" s="7"/>
+      <c r="C139" s="6"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="7"/>
+      <c r="E139" s="6"/>
       <c r="F139" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="7"/>
+      <c r="C140" s="6"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="7"/>
+      <c r="E140" s="6"/>
       <c r="F140" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
-      <c r="C141" s="7"/>
+      <c r="C141" s="6"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="7"/>
+      <c r="E141" s="6"/>
       <c r="F141" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
-      <c r="C142" s="7"/>
+      <c r="C142" s="6"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="7"/>
+      <c r="E142" s="6"/>
       <c r="F142" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="7"/>
+      <c r="C143" s="6"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="7"/>
+      <c r="E143" s="6"/>
       <c r="F143" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
-      <c r="C144" s="7"/>
+      <c r="C144" s="6"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="7"/>
+      <c r="E144" s="6"/>
       <c r="F144" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
-      <c r="C145" s="7"/>
+      <c r="C145" s="6"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="7"/>
+      <c r="E145" s="6"/>
       <c r="F145" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
-      <c r="C146" s="7"/>
+      <c r="C146" s="6"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="7"/>
+      <c r="E146" s="6"/>
       <c r="F146" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
-      <c r="C147" s="7"/>
+      <c r="C147" s="6"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="7"/>
+      <c r="E147" s="6"/>
       <c r="F147" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
-      <c r="C148" s="7"/>
+      <c r="C148" s="6"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="7"/>
+      <c r="E148" s="6"/>
       <c r="F148" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
-      <c r="C149" s="7"/>
+      <c r="C149" s="6"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="7"/>
+      <c r="E149" s="6"/>
       <c r="F149" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="7"/>
+      <c r="C150" s="6"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="7"/>
+      <c r="E150" s="6"/>
       <c r="F150" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
-      <c r="C151" s="7"/>
+      <c r="C151" s="6"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="7"/>
+      <c r="E151" s="6"/>
       <c r="F151" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
-      <c r="C152" s="7"/>
+      <c r="C152" s="6"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="7"/>
+      <c r="E152" s="6"/>
       <c r="F152" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
-      <c r="C153" s="7"/>
+      <c r="C153" s="6"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="7"/>
+      <c r="E153" s="6"/>
       <c r="F153" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
-      <c r="C154" s="7"/>
+      <c r="C154" s="6"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="7"/>
+      <c r="E154" s="6"/>
       <c r="F154" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
-      <c r="C155" s="7"/>
+      <c r="C155" s="6"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="7"/>
+      <c r="E155" s="6"/>
       <c r="F155" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
-      <c r="C156" s="7"/>
+      <c r="C156" s="6"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="7"/>
+      <c r="E156" s="6"/>
       <c r="F156" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
-      <c r="C157" s="7"/>
+      <c r="C157" s="6"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="7"/>
+      <c r="E157" s="6"/>
       <c r="F157" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
-      <c r="C158" s="7"/>
+      <c r="C158" s="6"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="7"/>
+      <c r="E158" s="6"/>
       <c r="F158" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
-      <c r="C159" s="7"/>
+      <c r="C159" s="6"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="7"/>
+      <c r="E159" s="6"/>
       <c r="F159" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
-      <c r="C160" s="7"/>
+      <c r="C160" s="6"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="7"/>
+      <c r="E160" s="6"/>
       <c r="F160" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
-      <c r="C161" s="7"/>
+      <c r="C161" s="6"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="7"/>
+      <c r="E161" s="6"/>
       <c r="F161" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
-      <c r="C162" s="7"/>
+      <c r="C162" s="6"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="7"/>
+      <c r="E162" s="6"/>
       <c r="F162" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
-      <c r="C163" s="7"/>
+      <c r="C163" s="6"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="7"/>
+      <c r="E163" s="6"/>
       <c r="F163" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
-      <c r="C164" s="7"/>
+      <c r="C164" s="6"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="7"/>
+      <c r="E164" s="6"/>
       <c r="F164" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
-      <c r="C165" s="7"/>
+      <c r="C165" s="6"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="7"/>
+      <c r="E165" s="6"/>
       <c r="F165" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
-      <c r="C166" s="7"/>
+      <c r="C166" s="6"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="7"/>
+      <c r="E166" s="6"/>
       <c r="F166" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
-      <c r="C167" s="7"/>
+      <c r="C167" s="6"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="7"/>
+      <c r="E167" s="6"/>
       <c r="F167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
-      <c r="C168" s="7"/>
+      <c r="C168" s="6"/>
       <c r="D168" s="3"/>
-      <c r="E168" s="7"/>
+      <c r="E168" s="6"/>
       <c r="F168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
-      <c r="C169" s="7"/>
+      <c r="C169" s="6"/>
       <c r="D169" s="3"/>
-      <c r="E169" s="7"/>
+      <c r="E169" s="6"/>
       <c r="F169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
-      <c r="C170" s="7"/>
+      <c r="C170" s="6"/>
       <c r="D170" s="3"/>
-      <c r="E170" s="7"/>
+      <c r="E170" s="6"/>
       <c r="F170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
-      <c r="C171" s="7"/>
+      <c r="C171" s="6"/>
       <c r="D171" s="3"/>
-      <c r="E171" s="7"/>
+      <c r="E171" s="6"/>
       <c r="F171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
-      <c r="C172" s="7"/>
+      <c r="C172" s="6"/>
       <c r="D172" s="3"/>
-      <c r="E172" s="7"/>
+      <c r="E172" s="6"/>
       <c r="F172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
-      <c r="C173" s="7"/>
+      <c r="C173" s="6"/>
       <c r="D173" s="3"/>
-      <c r="E173" s="7"/>
+      <c r="E173" s="6"/>
       <c r="F173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
-      <c r="C174" s="7"/>
+      <c r="C174" s="6"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="7"/>
+      <c r="E174" s="6"/>
       <c r="F174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
-      <c r="C175" s="7"/>
+      <c r="C175" s="6"/>
       <c r="D175" s="3"/>
-      <c r="E175" s="7"/>
+      <c r="E175" s="6"/>
       <c r="F175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
-      <c r="C176" s="7"/>
+      <c r="C176" s="6"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="7"/>
+      <c r="E176" s="6"/>
       <c r="F176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
-      <c r="C177" s="7"/>
+      <c r="C177" s="6"/>
       <c r="D177" s="3"/>
-      <c r="E177" s="7"/>
+      <c r="E177" s="6"/>
       <c r="F177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
-      <c r="C178" s="7"/>
+      <c r="C178" s="6"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="7"/>
+      <c r="E178" s="6"/>
       <c r="F178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
-      <c r="C179" s="7"/>
+      <c r="C179" s="6"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="7"/>
+      <c r="E179" s="6"/>
       <c r="F179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
-      <c r="C180" s="7"/>
+      <c r="C180" s="6"/>
       <c r="D180" s="3"/>
-      <c r="E180" s="7"/>
+      <c r="E180" s="6"/>
       <c r="F180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
-      <c r="C181" s="7"/>
+      <c r="C181" s="6"/>
       <c r="D181" s="3"/>
-      <c r="E181" s="7"/>
+      <c r="E181" s="6"/>
       <c r="F181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
-      <c r="C182" s="7"/>
+      <c r="C182" s="6"/>
       <c r="D182" s="3"/>
-      <c r="E182" s="7"/>
+      <c r="E182" s="6"/>
       <c r="F182" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
-      <c r="C183" s="7"/>
+      <c r="C183" s="6"/>
       <c r="D183" s="3"/>
-      <c r="E183" s="7"/>
+      <c r="E183" s="6"/>
       <c r="F183" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
-      <c r="C184" s="7"/>
+      <c r="C184" s="6"/>
       <c r="D184" s="3"/>
-      <c r="E184" s="7"/>
+      <c r="E184" s="6"/>
       <c r="F184" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
-      <c r="C185" s="7"/>
+      <c r="C185" s="6"/>
       <c r="D185" s="3"/>
-      <c r="E185" s="7"/>
+      <c r="E185" s="6"/>
       <c r="F185" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
-      <c r="C186" s="7"/>
+      <c r="C186" s="6"/>
       <c r="D186" s="3"/>
-      <c r="E186" s="7"/>
+      <c r="E186" s="6"/>
       <c r="F186" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
-      <c r="C187" s="7"/>
+      <c r="C187" s="6"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="7"/>
+      <c r="E187" s="6"/>
       <c r="F187" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
-      <c r="C188" s="7"/>
+      <c r="C188" s="6"/>
       <c r="D188" s="3"/>
-      <c r="E188" s="7"/>
+      <c r="E188" s="6"/>
       <c r="F188" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
-      <c r="C189" s="7"/>
+      <c r="C189" s="6"/>
       <c r="D189" s="3"/>
-      <c r="E189" s="7"/>
+      <c r="E189" s="6"/>
       <c r="F189" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
-      <c r="C190" s="7"/>
+      <c r="C190" s="6"/>
       <c r="D190" s="3"/>
-      <c r="E190" s="7"/>
+      <c r="E190" s="6"/>
       <c r="F190" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
-      <c r="C191" s="7"/>
+      <c r="C191" s="6"/>
       <c r="D191" s="3"/>
-      <c r="E191" s="7"/>
+      <c r="E191" s="6"/>
       <c r="F191" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
-      <c r="C192" s="7"/>
+      <c r="C192" s="6"/>
       <c r="D192" s="3"/>
-      <c r="E192" s="7"/>
+      <c r="E192" s="6"/>
       <c r="F192" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
-      <c r="C193" s="7"/>
+      <c r="C193" s="6"/>
       <c r="D193" s="3"/>
-      <c r="E193" s="7"/>
+      <c r="E193" s="6"/>
       <c r="F193" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
-      <c r="C194" s="7"/>
+      <c r="C194" s="6"/>
       <c r="D194" s="3"/>
-      <c r="E194" s="7"/>
+      <c r="E194" s="6"/>
       <c r="F194" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
-      <c r="C195" s="7"/>
+      <c r="C195" s="6"/>
       <c r="D195" s="3"/>
-      <c r="E195" s="7"/>
+      <c r="E195" s="6"/>
       <c r="F195" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
-      <c r="C196" s="7"/>
+      <c r="C196" s="6"/>
       <c r="D196" s="3"/>
-      <c r="E196" s="7"/>
+      <c r="E196" s="6"/>
       <c r="F196" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
-      <c r="C197" s="7"/>
+      <c r="C197" s="6"/>
       <c r="D197" s="3"/>
-      <c r="E197" s="7"/>
+      <c r="E197" s="6"/>
       <c r="F197" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
-      <c r="C198" s="7"/>
+      <c r="C198" s="6"/>
       <c r="D198" s="3"/>
-      <c r="E198" s="7"/>
+      <c r="E198" s="6"/>
       <c r="F198" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
-      <c r="C199" s="7"/>
+      <c r="C199" s="6"/>
       <c r="D199" s="3"/>
-      <c r="E199" s="7"/>
+      <c r="E199" s="6"/>
       <c r="F199" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
-      <c r="C200" s="7"/>
+      <c r="C200" s="6"/>
       <c r="D200" s="3"/>
-      <c r="E200" s="7"/>
+      <c r="E200" s="6"/>
       <c r="F200" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
-      <c r="C201" s="7"/>
+      <c r="C201" s="6"/>
       <c r="D201" s="3"/>
-      <c r="E201" s="7"/>
+      <c r="E201" s="6"/>
       <c r="F201" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
-      <c r="C202" s="7"/>
+      <c r="C202" s="6"/>
       <c r="D202" s="3"/>
-      <c r="E202" s="7"/>
+      <c r="E202" s="6"/>
       <c r="F202" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
-      <c r="C203" s="7"/>
+      <c r="C203" s="6"/>
       <c r="D203" s="3"/>
-      <c r="E203" s="7"/>
+      <c r="E203" s="6"/>
       <c r="F203" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
-      <c r="C204" s="7"/>
+      <c r="C204" s="6"/>
       <c r="D204" s="3"/>
-      <c r="E204" s="7"/>
+      <c r="E204" s="6"/>
       <c r="F204" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
-      <c r="C205" s="7"/>
+      <c r="C205" s="6"/>
       <c r="D205" s="3"/>
-      <c r="E205" s="7"/>
+      <c r="E205" s="6"/>
       <c r="F205" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
-      <c r="C206" s="7"/>
+      <c r="C206" s="6"/>
       <c r="D206" s="3"/>
-      <c r="E206" s="7"/>
+      <c r="E206" s="6"/>
       <c r="F206" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
-      <c r="C207" s="7"/>
+      <c r="C207" s="6"/>
       <c r="D207" s="3"/>
-      <c r="E207" s="7"/>
+      <c r="E207" s="6"/>
       <c r="F207" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
-      <c r="C208" s="7"/>
+      <c r="C208" s="6"/>
       <c r="D208" s="3"/>
-      <c r="E208" s="7"/>
+      <c r="E208" s="6"/>
       <c r="F208" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
-      <c r="C209" s="7"/>
+      <c r="C209" s="6"/>
       <c r="D209" s="3"/>
-      <c r="E209" s="7"/>
+      <c r="E209" s="6"/>
       <c r="F209" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
-      <c r="C210" s="7"/>
+      <c r="C210" s="6"/>
       <c r="D210" s="3"/>
-      <c r="E210" s="7"/>
+      <c r="E210" s="6"/>
       <c r="F210" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
-      <c r="C211" s="7"/>
+      <c r="C211" s="6"/>
       <c r="D211" s="3"/>
-      <c r="E211" s="7"/>
+      <c r="E211" s="6"/>
       <c r="F211" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
-      <c r="C212" s="7"/>
+      <c r="C212" s="6"/>
       <c r="D212" s="3"/>
-      <c r="E212" s="7"/>
+      <c r="E212" s="6"/>
       <c r="F212" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
-      <c r="C213" s="7"/>
+      <c r="C213" s="6"/>
       <c r="D213" s="3"/>
-      <c r="E213" s="7"/>
+      <c r="E213" s="6"/>
       <c r="F213" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
-      <c r="C214" s="7"/>
+      <c r="C214" s="6"/>
       <c r="D214" s="3"/>
-      <c r="E214" s="7"/>
+      <c r="E214" s="6"/>
       <c r="F214" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
-      <c r="C215" s="7"/>
+      <c r="C215" s="6"/>
       <c r="D215" s="3"/>
-      <c r="E215" s="7"/>
+      <c r="E215" s="6"/>
       <c r="F215" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
-      <c r="C216" s="7"/>
+      <c r="C216" s="6"/>
       <c r="D216" s="3"/>
-      <c r="E216" s="7"/>
+      <c r="E216" s="6"/>
       <c r="F216" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
-      <c r="C217" s="7"/>
+      <c r="C217" s="6"/>
       <c r="D217" s="3"/>
-      <c r="E217" s="7"/>
+      <c r="E217" s="6"/>
       <c r="F217" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
-      <c r="C218" s="7"/>
+      <c r="C218" s="6"/>
       <c r="D218" s="3"/>
-      <c r="E218" s="7"/>
+      <c r="E218" s="6"/>
       <c r="F218" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
-      <c r="C219" s="7"/>
+      <c r="C219" s="6"/>
       <c r="D219" s="3"/>
-      <c r="E219" s="7"/>
+      <c r="E219" s="6"/>
       <c r="F219" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
-      <c r="C220" s="7"/>
+      <c r="C220" s="6"/>
       <c r="D220" s="3"/>
-      <c r="E220" s="7"/>
+      <c r="E220" s="6"/>
       <c r="F220" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
-      <c r="C221" s="7"/>
+      <c r="C221" s="6"/>
       <c r="D221" s="3"/>
-      <c r="E221" s="7"/>
+      <c r="E221" s="6"/>
       <c r="F221" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
-      <c r="C222" s="7"/>
+      <c r="C222" s="6"/>
       <c r="D222" s="3"/>
-      <c r="E222" s="7"/>
+      <c r="E222" s="6"/>
       <c r="F222" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
-      <c r="C223" s="7"/>
+      <c r="C223" s="6"/>
       <c r="D223" s="3"/>
-      <c r="E223" s="7"/>
+      <c r="E223" s="6"/>
       <c r="F223" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
-      <c r="C224" s="7"/>
+      <c r="C224" s="6"/>
       <c r="D224" s="3"/>
-      <c r="E224" s="7"/>
+      <c r="E224" s="6"/>
       <c r="F224" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
-      <c r="C225" s="7"/>
+      <c r="C225" s="6"/>
       <c r="D225" s="3"/>
-      <c r="E225" s="7"/>
+      <c r="E225" s="6"/>
       <c r="F225" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
-      <c r="C226" s="7"/>
+      <c r="C226" s="6"/>
       <c r="D226" s="3"/>
-      <c r="E226" s="7"/>
+      <c r="E226" s="6"/>
       <c r="F226" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
-      <c r="C227" s="7"/>
+      <c r="C227" s="6"/>
       <c r="D227" s="3"/>
-      <c r="E227" s="7"/>
+      <c r="E227" s="6"/>
       <c r="F227" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
-      <c r="C228" s="7"/>
+      <c r="C228" s="6"/>
       <c r="D228" s="3"/>
-      <c r="E228" s="7"/>
+      <c r="E228" s="6"/>
       <c r="F228" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
-      <c r="C229" s="7"/>
+      <c r="C229" s="6"/>
       <c r="D229" s="3"/>
-      <c r="E229" s="7"/>
+      <c r="E229" s="6"/>
       <c r="F229" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
-      <c r="C230" s="7"/>
+      <c r="C230" s="6"/>
       <c r="D230" s="3"/>
-      <c r="E230" s="7"/>
+      <c r="E230" s="6"/>
       <c r="F230" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
-      <c r="C231" s="7"/>
+      <c r="C231" s="6"/>
       <c r="D231" s="3"/>
-      <c r="E231" s="7"/>
+      <c r="E231" s="6"/>
       <c r="F231" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
-      <c r="C232" s="7"/>
+      <c r="C232" s="6"/>
       <c r="D232" s="3"/>
-      <c r="E232" s="7"/>
+      <c r="E232" s="6"/>
       <c r="F232" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
-      <c r="C233" s="7"/>
+      <c r="C233" s="6"/>
       <c r="D233" s="3"/>
-      <c r="E233" s="7"/>
+      <c r="E233" s="6"/>
       <c r="F233" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
-      <c r="C234" s="7"/>
+      <c r="C234" s="6"/>
       <c r="D234" s="3"/>
-      <c r="E234" s="7"/>
+      <c r="E234" s="6"/>
       <c r="F234" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
-      <c r="C235" s="7"/>
+      <c r="C235" s="6"/>
       <c r="D235" s="3"/>
-      <c r="E235" s="7"/>
+      <c r="E235" s="6"/>
       <c r="F235" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
-      <c r="C236" s="7"/>
+      <c r="C236" s="6"/>
       <c r="D236" s="3"/>
-      <c r="E236" s="7"/>
+      <c r="E236" s="6"/>
       <c r="F236" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
-      <c r="C237" s="7"/>
+      <c r="C237" s="6"/>
       <c r="D237" s="3"/>
-      <c r="E237" s="7"/>
+      <c r="E237" s="6"/>
       <c r="F237" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
-      <c r="C238" s="7"/>
+      <c r="C238" s="6"/>
       <c r="D238" s="3"/>
-      <c r="E238" s="7"/>
+      <c r="E238" s="6"/>
       <c r="F238" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
-      <c r="C239" s="7"/>
+      <c r="C239" s="6"/>
       <c r="D239" s="3"/>
-      <c r="E239" s="7"/>
+      <c r="E239" s="6"/>
       <c r="F239" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
-      <c r="C240" s="7"/>
+      <c r="C240" s="6"/>
       <c r="D240" s="3"/>
-      <c r="E240" s="7"/>
+      <c r="E240" s="6"/>
       <c r="F240" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
-      <c r="C241" s="7"/>
+      <c r="C241" s="6"/>
       <c r="D241" s="3"/>
-      <c r="E241" s="7"/>
+      <c r="E241" s="6"/>
       <c r="F241" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
-      <c r="C242" s="7"/>
+      <c r="C242" s="6"/>
       <c r="D242" s="3"/>
-      <c r="E242" s="7"/>
+      <c r="E242" s="6"/>
       <c r="F242" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
-      <c r="C243" s="7"/>
+      <c r="C243" s="6"/>
       <c r="D243" s="3"/>
-      <c r="E243" s="7"/>
+      <c r="E243" s="6"/>
       <c r="F243" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
-      <c r="C244" s="7"/>
+      <c r="C244" s="6"/>
       <c r="D244" s="3"/>
-      <c r="E244" s="7"/>
+      <c r="E244" s="6"/>
       <c r="F244" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
-      <c r="C245" s="7"/>
+      <c r="C245" s="6"/>
       <c r="D245" s="3"/>
-      <c r="E245" s="7"/>
+      <c r="E245" s="6"/>
       <c r="F245" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
-      <c r="C246" s="7"/>
+      <c r="C246" s="6"/>
       <c r="D246" s="3"/>
-      <c r="E246" s="7"/>
+      <c r="E246" s="6"/>
       <c r="F246" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
-      <c r="C247" s="7"/>
+      <c r="C247" s="6"/>
       <c r="D247" s="3"/>
-      <c r="E247" s="7"/>
+      <c r="E247" s="6"/>
       <c r="F247" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
-      <c r="C248" s="7"/>
+      <c r="C248" s="6"/>
       <c r="D248" s="3"/>
-      <c r="E248" s="7"/>
+      <c r="E248" s="6"/>
       <c r="F248" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
-      <c r="C249" s="7"/>
+      <c r="C249" s="6"/>
       <c r="D249" s="3"/>
-      <c r="E249" s="7"/>
+      <c r="E249" s="6"/>
       <c r="F249" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
-      <c r="C250" s="7"/>
+      <c r="C250" s="6"/>
       <c r="D250" s="3"/>
-      <c r="E250" s="7"/>
+      <c r="E250" s="6"/>
       <c r="F250" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
-      <c r="C251" s="7"/>
+      <c r="C251" s="6"/>
       <c r="D251" s="3"/>
-      <c r="E251" s="7"/>
+      <c r="E251" s="6"/>
       <c r="F251" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
-      <c r="C252" s="7"/>
+      <c r="C252" s="6"/>
       <c r="D252" s="3"/>
-      <c r="E252" s="7"/>
+      <c r="E252" s="6"/>
       <c r="F252" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
-      <c r="C253" s="7"/>
+      <c r="C253" s="6"/>
       <c r="D253" s="3"/>
-      <c r="E253" s="7"/>
+      <c r="E253" s="6"/>
       <c r="F253" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
-      <c r="C254" s="7"/>
+      <c r="C254" s="6"/>
       <c r="D254" s="3"/>
-      <c r="E254" s="7"/>
+      <c r="E254" s="6"/>
       <c r="F254" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
-      <c r="C255" s="7"/>
+      <c r="C255" s="6"/>
       <c r="D255" s="3"/>
-      <c r="E255" s="7"/>
+      <c r="E255" s="6"/>
       <c r="F255" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
-      <c r="C256" s="7"/>
+      <c r="C256" s="6"/>
       <c r="D256" s="3"/>
-      <c r="E256" s="7"/>
+      <c r="E256" s="6"/>
       <c r="F256" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
-      <c r="C257" s="7"/>
+      <c r="C257" s="6"/>
       <c r="D257" s="3"/>
-      <c r="E257" s="7"/>
+      <c r="E257" s="6"/>
       <c r="F257" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
-      <c r="C258" s="7"/>
+      <c r="C258" s="6"/>
       <c r="D258" s="3"/>
-      <c r="E258" s="7"/>
+      <c r="E258" s="6"/>
       <c r="F258" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
-      <c r="C259" s="7"/>
+      <c r="C259" s="6"/>
       <c r="D259" s="3"/>
-      <c r="E259" s="7"/>
+      <c r="E259" s="6"/>
       <c r="F259" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
-      <c r="C260" s="7"/>
+      <c r="C260" s="6"/>
       <c r="D260" s="3"/>
-      <c r="E260" s="7"/>
+      <c r="E260" s="6"/>
       <c r="F260" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
-      <c r="C261" s="7"/>
+      <c r="C261" s="6"/>
       <c r="D261" s="3"/>
-      <c r="E261" s="7"/>
+      <c r="E261" s="6"/>
       <c r="F261" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
-      <c r="C262" s="7"/>
+      <c r="C262" s="6"/>
       <c r="D262" s="3"/>
-      <c r="E262" s="7"/>
+      <c r="E262" s="6"/>
       <c r="F262" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
-      <c r="C263" s="7"/>
+      <c r="C263" s="6"/>
       <c r="D263" s="3"/>
-      <c r="E263" s="7"/>
+      <c r="E263" s="6"/>
       <c r="F263" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
-      <c r="C264" s="7"/>
+      <c r="C264" s="6"/>
       <c r="D264" s="3"/>
-      <c r="E264" s="7"/>
+      <c r="E264" s="6"/>
       <c r="F264" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
-      <c r="C265" s="7"/>
+      <c r="C265" s="6"/>
       <c r="D265" s="3"/>
-      <c r="E265" s="7"/>
+      <c r="E265" s="6"/>
       <c r="F265" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
-      <c r="C266" s="7"/>
+      <c r="C266" s="6"/>
       <c r="D266" s="3"/>
-      <c r="E266" s="7"/>
+      <c r="E266" s="6"/>
       <c r="F266" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
-      <c r="C267" s="7"/>
+      <c r="C267" s="6"/>
       <c r="D267" s="3"/>
-      <c r="E267" s="7"/>
+      <c r="E267" s="6"/>
       <c r="F267" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
-      <c r="C268" s="7"/>
+      <c r="C268" s="6"/>
       <c r="D268" s="3"/>
-      <c r="E268" s="7"/>
+      <c r="E268" s="6"/>
       <c r="F268" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
-      <c r="C269" s="7"/>
+      <c r="C269" s="6"/>
       <c r="D269" s="3"/>
-      <c r="E269" s="7"/>
+      <c r="E269" s="6"/>
       <c r="F269" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
-      <c r="C270" s="7"/>
+      <c r="C270" s="6"/>
       <c r="D270" s="3"/>
-      <c r="E270" s="7"/>
+      <c r="E270" s="6"/>
       <c r="F270" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
-      <c r="C271" s="7"/>
+      <c r="C271" s="6"/>
       <c r="D271" s="3"/>
-      <c r="E271" s="7"/>
+      <c r="E271" s="6"/>
       <c r="F271" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
-      <c r="C272" s="7"/>
+      <c r="C272" s="6"/>
       <c r="D272" s="3"/>
-      <c r="E272" s="7"/>
+      <c r="E272" s="6"/>
       <c r="F272" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
-      <c r="C273" s="7"/>
+      <c r="C273" s="6"/>
       <c r="D273" s="3"/>
-      <c r="E273" s="7"/>
+      <c r="E273" s="6"/>
       <c r="F273" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
-      <c r="C274" s="7"/>
+      <c r="C274" s="6"/>
       <c r="D274" s="3"/>
-      <c r="E274" s="7"/>
+      <c r="E274" s="6"/>
       <c r="F274" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
-      <c r="C275" s="7"/>
+      <c r="C275" s="6"/>
       <c r="D275" s="3"/>
-      <c r="E275" s="7"/>
+      <c r="E275" s="6"/>
       <c r="F275" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
-      <c r="C276" s="7"/>
+      <c r="C276" s="6"/>
       <c r="D276" s="3"/>
-      <c r="E276" s="7"/>
+      <c r="E276" s="6"/>
       <c r="F276" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
-      <c r="C277" s="7"/>
+      <c r="C277" s="6"/>
       <c r="D277" s="3"/>
-      <c r="E277" s="7"/>
+      <c r="E277" s="6"/>
       <c r="F277" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
-      <c r="C278" s="7"/>
+      <c r="C278" s="6"/>
       <c r="D278" s="3"/>
-      <c r="E278" s="7"/>
+      <c r="E278" s="6"/>
       <c r="F278" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
-      <c r="C279" s="7"/>
+      <c r="C279" s="6"/>
       <c r="D279" s="3"/>
-      <c r="E279" s="7"/>
+      <c r="E279" s="6"/>
       <c r="F279" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
-      <c r="C280" s="7"/>
+      <c r="C280" s="6"/>
       <c r="D280" s="3"/>
-      <c r="E280" s="7"/>
+      <c r="E280" s="6"/>
       <c r="F280" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
-      <c r="C281" s="7"/>
+      <c r="C281" s="6"/>
       <c r="D281" s="3"/>
-      <c r="E281" s="7"/>
+      <c r="E281" s="6"/>
       <c r="F281" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
-      <c r="C282" s="7"/>
+      <c r="C282" s="6"/>
       <c r="D282" s="3"/>
-      <c r="E282" s="7"/>
+      <c r="E282" s="6"/>
       <c r="F282" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
-      <c r="C283" s="7"/>
+      <c r="C283" s="6"/>
       <c r="D283" s="3"/>
-      <c r="E283" s="7"/>
+      <c r="E283" s="6"/>
       <c r="F283" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
-      <c r="C284" s="7"/>
+      <c r="C284" s="6"/>
       <c r="D284" s="3"/>
-      <c r="E284" s="7"/>
+      <c r="E284" s="6"/>
       <c r="F284" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
-      <c r="C285" s="7"/>
+      <c r="C285" s="6"/>
       <c r="D285" s="3"/>
-      <c r="E285" s="7"/>
+      <c r="E285" s="6"/>
       <c r="F285" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
-      <c r="C286" s="7"/>
+      <c r="C286" s="6"/>
       <c r="D286" s="3"/>
-      <c r="E286" s="7"/>
+      <c r="E286" s="6"/>
       <c r="F286" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
-      <c r="C287" s="7"/>
+      <c r="C287" s="6"/>
       <c r="D287" s="3"/>
-      <c r="E287" s="7"/>
+      <c r="E287" s="6"/>
       <c r="F287" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
-      <c r="C288" s="7"/>
+      <c r="C288" s="6"/>
       <c r="D288" s="3"/>
-      <c r="E288" s="7"/>
+      <c r="E288" s="6"/>
       <c r="F288" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
-      <c r="C289" s="7"/>
+      <c r="C289" s="6"/>
       <c r="D289" s="3"/>
-      <c r="E289" s="7"/>
+      <c r="E289" s="6"/>
       <c r="F289" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
-      <c r="C290" s="7"/>
+      <c r="C290" s="6"/>
       <c r="D290" s="3"/>
-      <c r="E290" s="7"/>
+      <c r="E290" s="6"/>
       <c r="F290" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
-      <c r="C291" s="7"/>
+      <c r="C291" s="6"/>
       <c r="D291" s="3"/>
-      <c r="E291" s="7"/>
+      <c r="E291" s="6"/>
       <c r="F291" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
-      <c r="C292" s="7"/>
+      <c r="C292" s="6"/>
       <c r="D292" s="3"/>
-      <c r="E292" s="7"/>
+      <c r="E292" s="6"/>
       <c r="F292" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
-      <c r="C293" s="7"/>
+      <c r="C293" s="6"/>
       <c r="D293" s="3"/>
-      <c r="E293" s="7"/>
+      <c r="E293" s="6"/>
       <c r="F293" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
-      <c r="C294" s="7"/>
+      <c r="C294" s="6"/>
       <c r="D294" s="3"/>
-      <c r="E294" s="7"/>
+      <c r="E294" s="6"/>
       <c r="F294" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
-      <c r="C295" s="7"/>
+      <c r="C295" s="6"/>
       <c r="D295" s="3"/>
-      <c r="E295" s="7"/>
+      <c r="E295" s="6"/>
       <c r="F295" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
-      <c r="C296" s="7"/>
+      <c r="C296" s="6"/>
       <c r="D296" s="3"/>
-      <c r="E296" s="7"/>
+      <c r="E296" s="6"/>
       <c r="F296" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
-      <c r="C297" s="7"/>
+      <c r="C297" s="6"/>
       <c r="D297" s="3"/>
-      <c r="E297" s="7"/>
+      <c r="E297" s="6"/>
       <c r="F297" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
-      <c r="C298" s="7"/>
+      <c r="C298" s="6"/>
       <c r="D298" s="3"/>
-      <c r="E298" s="7"/>
+      <c r="E298" s="6"/>
       <c r="F298" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
-      <c r="C299" s="7"/>
+      <c r="C299" s="6"/>
       <c r="D299" s="3"/>
-      <c r="E299" s="7"/>
+      <c r="E299" s="6"/>
       <c r="F299" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
-      <c r="C300" s="7"/>
+      <c r="C300" s="6"/>
       <c r="D300" s="3"/>
-      <c r="E300" s="7"/>
+      <c r="E300" s="6"/>
       <c r="F300" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
-      <c r="C301" s="7"/>
+      <c r="C301" s="6"/>
       <c r="D301" s="3"/>
-      <c r="E301" s="7"/>
+      <c r="E301" s="6"/>
       <c r="F301" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
-      <c r="C302" s="7"/>
+      <c r="C302" s="6"/>
       <c r="D302" s="3"/>
-      <c r="E302" s="7"/>
+      <c r="E302" s="6"/>
       <c r="F302" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
-      <c r="C303" s="7"/>
+      <c r="C303" s="6"/>
       <c r="D303" s="3"/>
-      <c r="E303" s="7"/>
+      <c r="E303" s="6"/>
       <c r="F303" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
-      <c r="C304" s="7"/>
+      <c r="C304" s="6"/>
       <c r="D304" s="3"/>
-      <c r="E304" s="7"/>
+      <c r="E304" s="6"/>
       <c r="F304" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
-      <c r="C305" s="7"/>
+      <c r="C305" s="6"/>
       <c r="D305" s="3"/>
-      <c r="E305" s="7"/>
+      <c r="E305" s="6"/>
       <c r="F305" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
-      <c r="C306" s="7"/>
+      <c r="C306" s="6"/>
       <c r="D306" s="3"/>
-      <c r="E306" s="7"/>
+      <c r="E306" s="6"/>
       <c r="F306" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
-      <c r="C307" s="7"/>
+      <c r="C307" s="6"/>
       <c r="D307" s="3"/>
-      <c r="E307" s="7"/>
+      <c r="E307" s="6"/>
       <c r="F307" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
-      <c r="C308" s="7"/>
+      <c r="C308" s="6"/>
       <c r="D308" s="3"/>
-      <c r="E308" s="7"/>
+      <c r="E308" s="6"/>
       <c r="F308" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
-      <c r="C309" s="7"/>
+      <c r="C309" s="6"/>
       <c r="D309" s="3"/>
-      <c r="E309" s="7"/>
+      <c r="E309" s="6"/>
       <c r="F309" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
-      <c r="C310" s="7"/>
+      <c r="C310" s="6"/>
       <c r="D310" s="3"/>
-      <c r="E310" s="7"/>
+      <c r="E310" s="6"/>
       <c r="F310" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
-      <c r="C311" s="7"/>
+      <c r="C311" s="6"/>
       <c r="D311" s="3"/>
-      <c r="E311" s="7"/>
+      <c r="E311" s="6"/>
       <c r="F311" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
-      <c r="C312" s="7"/>
+      <c r="C312" s="6"/>
       <c r="D312" s="3"/>
-      <c r="E312" s="7"/>
+      <c r="E312" s="6"/>
       <c r="F312" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
-      <c r="C313" s="7"/>
+      <c r="C313" s="6"/>
       <c r="D313" s="3"/>
-      <c r="E313" s="7"/>
+      <c r="E313" s="6"/>
       <c r="F313" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
-      <c r="C314" s="7"/>
+      <c r="C314" s="6"/>
       <c r="D314" s="3"/>
-      <c r="E314" s="7"/>
+      <c r="E314" s="6"/>
       <c r="F314" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
-      <c r="C315" s="7"/>
+      <c r="C315" s="6"/>
       <c r="D315" s="3"/>
-      <c r="E315" s="7"/>
+      <c r="E315" s="6"/>
       <c r="F315" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
-      <c r="C316" s="7"/>
+      <c r="C316" s="6"/>
       <c r="D316" s="3"/>
-      <c r="E316" s="7"/>
+      <c r="E316" s="6"/>
       <c r="F316" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
-      <c r="C317" s="7"/>
+      <c r="C317" s="6"/>
       <c r="D317" s="3"/>
-      <c r="E317" s="7"/>
+      <c r="E317" s="6"/>
       <c r="F317" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
-      <c r="C318" s="7"/>
+      <c r="C318" s="6"/>
       <c r="D318" s="3"/>
-      <c r="E318" s="7"/>
+      <c r="E318" s="6"/>
       <c r="F318" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
-      <c r="C319" s="7"/>
+      <c r="C319" s="6"/>
       <c r="D319" s="3"/>
-      <c r="E319" s="7"/>
+      <c r="E319" s="6"/>
       <c r="F319" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
-      <c r="C320" s="7"/>
+      <c r="C320" s="6"/>
       <c r="D320" s="3"/>
-      <c r="E320" s="7"/>
+      <c r="E320" s="6"/>
       <c r="F320" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
-      <c r="C321" s="7"/>
+      <c r="C321" s="6"/>
       <c r="D321" s="3"/>
-      <c r="E321" s="7"/>
+      <c r="E321" s="6"/>
       <c r="F321" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
-      <c r="C322" s="7"/>
+      <c r="C322" s="6"/>
       <c r="D322" s="3"/>
-      <c r="E322" s="7"/>
+      <c r="E322" s="6"/>
       <c r="F322" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
-      <c r="C323" s="7"/>
+      <c r="C323" s="6"/>
       <c r="D323" s="3"/>
-      <c r="E323" s="7"/>
+      <c r="E323" s="6"/>
       <c r="F323" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
-      <c r="C324" s="7"/>
+      <c r="C324" s="6"/>
       <c r="D324" s="3"/>
-      <c r="E324" s="7"/>
+      <c r="E324" s="6"/>
       <c r="F324" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
-      <c r="C325" s="7"/>
+      <c r="C325" s="6"/>
       <c r="D325" s="3"/>
-      <c r="E325" s="7"/>
+      <c r="E325" s="6"/>
       <c r="F325" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
-      <c r="C326" s="7"/>
+      <c r="C326" s="6"/>
       <c r="D326" s="3"/>
-      <c r="E326" s="7"/>
+      <c r="E326" s="6"/>
       <c r="F326" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
-      <c r="C327" s="7"/>
+      <c r="C327" s="6"/>
       <c r="D327" s="3"/>
-      <c r="E327" s="7"/>
+      <c r="E327" s="6"/>
       <c r="F327" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
-      <c r="C328" s="7"/>
+      <c r="C328" s="6"/>
       <c r="D328" s="3"/>
-      <c r="E328" s="7"/>
+      <c r="E328" s="6"/>
       <c r="F328" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
-      <c r="C329" s="7"/>
+      <c r="C329" s="6"/>
       <c r="D329" s="3"/>
-      <c r="E329" s="7"/>
+      <c r="E329" s="6"/>
       <c r="F329" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
-      <c r="C330" s="7"/>
+      <c r="C330" s="6"/>
       <c r="D330" s="3"/>
-      <c r="E330" s="7"/>
+      <c r="E330" s="6"/>
       <c r="F330" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
-      <c r="C331" s="7"/>
+      <c r="C331" s="6"/>
       <c r="D331" s="3"/>
-      <c r="E331" s="7"/>
+      <c r="E331" s="6"/>
       <c r="F331" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
-      <c r="C332" s="7"/>
+      <c r="C332" s="6"/>
       <c r="D332" s="3"/>
-      <c r="E332" s="7"/>
+      <c r="E332" s="6"/>
       <c r="F332" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
-      <c r="C333" s="7"/>
+      <c r="C333" s="6"/>
       <c r="D333" s="3"/>
-      <c r="E333" s="7"/>
+      <c r="E333" s="6"/>
       <c r="F333" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
-      <c r="C334" s="7"/>
+      <c r="C334" s="6"/>
       <c r="D334" s="3"/>
-      <c r="E334" s="7"/>
+      <c r="E334" s="6"/>
       <c r="F334" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
-      <c r="C335" s="7"/>
+      <c r="C335" s="6"/>
       <c r="D335" s="3"/>
-      <c r="E335" s="7"/>
+      <c r="E335" s="6"/>
       <c r="F335" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
-      <c r="C336" s="7"/>
+      <c r="C336" s="6"/>
       <c r="D336" s="3"/>
-      <c r="E336" s="7"/>
+      <c r="E336" s="6"/>
       <c r="F336" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
-      <c r="C337" s="7"/>
+      <c r="C337" s="6"/>
       <c r="D337" s="3"/>
-      <c r="E337" s="7"/>
+      <c r="E337" s="6"/>
       <c r="F337" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
-      <c r="C338" s="7"/>
+      <c r="C338" s="6"/>
       <c r="D338" s="3"/>
-      <c r="E338" s="7"/>
+      <c r="E338" s="6"/>
       <c r="F338" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
-      <c r="C339" s="7"/>
+      <c r="C339" s="6"/>
       <c r="D339" s="3"/>
-      <c r="E339" s="7"/>
+      <c r="E339" s="6"/>
       <c r="F339" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
-      <c r="C340" s="7"/>
+      <c r="C340" s="6"/>
       <c r="D340" s="3"/>
-      <c r="E340" s="7"/>
+      <c r="E340" s="6"/>
       <c r="F340" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
-      <c r="C341" s="7"/>
+      <c r="C341" s="6"/>
       <c r="D341" s="3"/>
-      <c r="E341" s="7"/>
+      <c r="E341" s="6"/>
       <c r="F341" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
-      <c r="C342" s="7"/>
+      <c r="C342" s="6"/>
       <c r="D342" s="3"/>
-      <c r="E342" s="7"/>
+      <c r="E342" s="6"/>
       <c r="F342" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
-      <c r="C343" s="7"/>
+      <c r="C343" s="6"/>
       <c r="D343" s="3"/>
-      <c r="E343" s="7"/>
+      <c r="E343" s="6"/>
       <c r="F343" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
-      <c r="C344" s="7"/>
+      <c r="C344" s="6"/>
       <c r="D344" s="3"/>
-      <c r="E344" s="7"/>
+      <c r="E344" s="6"/>
       <c r="F344" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
-      <c r="C345" s="7"/>
+      <c r="C345" s="6"/>
       <c r="D345" s="3"/>
-      <c r="E345" s="7"/>
+      <c r="E345" s="6"/>
       <c r="F345" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
-      <c r="C346" s="7"/>
+      <c r="C346" s="6"/>
       <c r="D346" s="3"/>
-      <c r="E346" s="7"/>
+      <c r="E346" s="6"/>
       <c r="F346" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
-      <c r="C347" s="7"/>
+      <c r="C347" s="6"/>
       <c r="D347" s="3"/>
-      <c r="E347" s="7"/>
+      <c r="E347" s="6"/>
       <c r="F347" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
-      <c r="C348" s="7"/>
+      <c r="C348" s="6"/>
       <c r="D348" s="3"/>
-      <c r="E348" s="7"/>
+      <c r="E348" s="6"/>
       <c r="F348" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
-      <c r="C349" s="7"/>
+      <c r="C349" s="6"/>
       <c r="D349" s="3"/>
-      <c r="E349" s="7"/>
+      <c r="E349" s="6"/>
       <c r="F349" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
-      <c r="C350" s="7"/>
+      <c r="C350" s="6"/>
       <c r="D350" s="3"/>
-      <c r="E350" s="7"/>
+      <c r="E350" s="6"/>
       <c r="F350" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
-      <c r="C351" s="7"/>
+      <c r="C351" s="6"/>
       <c r="D351" s="3"/>
-      <c r="E351" s="7"/>
+      <c r="E351" s="6"/>
       <c r="F351" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
-      <c r="C352" s="7"/>
+      <c r="C352" s="6"/>
       <c r="D352" s="3"/>
-      <c r="E352" s="7"/>
+      <c r="E352" s="6"/>
       <c r="F352" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
-      <c r="C353" s="7"/>
+      <c r="C353" s="6"/>
       <c r="D353" s="3"/>
-      <c r="E353" s="7"/>
+      <c r="E353" s="6"/>
       <c r="F353" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
-      <c r="C354" s="7"/>
+      <c r="C354" s="6"/>
       <c r="D354" s="3"/>
-      <c r="E354" s="7"/>
+      <c r="E354" s="6"/>
       <c r="F354" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
-      <c r="C355" s="7"/>
+      <c r="C355" s="6"/>
       <c r="D355" s="3"/>
-      <c r="E355" s="7"/>
+      <c r="E355" s="6"/>
       <c r="F355" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
-      <c r="C356" s="7"/>
+      <c r="C356" s="6"/>
       <c r="D356" s="3"/>
-      <c r="E356" s="7"/>
+      <c r="E356" s="6"/>
       <c r="F356" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
-      <c r="C357" s="7"/>
+      <c r="C357" s="6"/>
       <c r="D357" s="3"/>
-      <c r="E357" s="7"/>
+      <c r="E357" s="6"/>
       <c r="F357" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
-      <c r="C358" s="7"/>
+      <c r="C358" s="6"/>
       <c r="D358" s="3"/>
-      <c r="E358" s="7"/>
+      <c r="E358" s="6"/>
       <c r="F358" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
-      <c r="C359" s="7"/>
+      <c r="C359" s="6"/>
       <c r="D359" s="3"/>
-      <c r="E359" s="7"/>
+      <c r="E359" s="6"/>
       <c r="F359" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
-      <c r="C360" s="7"/>
+      <c r="C360" s="6"/>
       <c r="D360" s="3"/>
-      <c r="E360" s="7"/>
+      <c r="E360" s="6"/>
       <c r="F360" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
-      <c r="C361" s="7"/>
+      <c r="C361" s="6"/>
       <c r="D361" s="3"/>
-      <c r="E361" s="7"/>
+      <c r="E361" s="6"/>
       <c r="F361" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
-      <c r="C362" s="7"/>
+      <c r="C362" s="6"/>
       <c r="D362" s="3"/>
-      <c r="E362" s="7"/>
+      <c r="E362" s="6"/>
       <c r="F362" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
-      <c r="C363" s="7"/>
+      <c r="C363" s="6"/>
       <c r="D363" s="3"/>
-      <c r="E363" s="7"/>
+      <c r="E363" s="6"/>
       <c r="F363" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
-      <c r="C364" s="7"/>
+      <c r="C364" s="6"/>
       <c r="D364" s="3"/>
-      <c r="E364" s="7"/>
+      <c r="E364" s="6"/>
       <c r="F364" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
-      <c r="C365" s="7"/>
+      <c r="C365" s="6"/>
       <c r="D365" s="3"/>
-      <c r="E365" s="7"/>
+      <c r="E365" s="6"/>
       <c r="F365" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
-      <c r="C366" s="7"/>
+      <c r="C366" s="6"/>
       <c r="D366" s="3"/>
-      <c r="E366" s="7"/>
+      <c r="E366" s="6"/>
       <c r="F366" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
-      <c r="C367" s="7"/>
+      <c r="C367" s="6"/>
       <c r="D367" s="3"/>
-      <c r="E367" s="7"/>
+      <c r="E367" s="6"/>
       <c r="F367" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
-      <c r="C368" s="7"/>
+      <c r="C368" s="6"/>
       <c r="D368" s="3"/>
-      <c r="E368" s="7"/>
+      <c r="E368" s="6"/>
       <c r="F368" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
-      <c r="C369" s="7"/>
+      <c r="C369" s="6"/>
       <c r="D369" s="3"/>
-      <c r="E369" s="7"/>
+      <c r="E369" s="6"/>
       <c r="F369" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
-      <c r="C370" s="7"/>
+      <c r="C370" s="6"/>
       <c r="D370" s="3"/>
-      <c r="E370" s="7"/>
+      <c r="E370" s="6"/>
       <c r="F370" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
-      <c r="C371" s="7"/>
+      <c r="C371" s="6"/>
       <c r="D371" s="3"/>
-      <c r="E371" s="7"/>
+      <c r="E371" s="6"/>
       <c r="F371" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
-      <c r="C372" s="7"/>
+      <c r="C372" s="6"/>
       <c r="D372" s="3"/>
-      <c r="E372" s="7"/>
+      <c r="E372" s="6"/>
       <c r="F372" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
-      <c r="C373" s="7"/>
+      <c r="C373" s="6"/>
       <c r="D373" s="3"/>
-      <c r="E373" s="7"/>
+      <c r="E373" s="6"/>
       <c r="F373" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
-      <c r="C374" s="7"/>
+      <c r="C374" s="6"/>
       <c r="D374" s="3"/>
-      <c r="E374" s="7"/>
+      <c r="E374" s="6"/>
       <c r="F374" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
-      <c r="C375" s="7"/>
+      <c r="C375" s="6"/>
       <c r="D375" s="3"/>
-      <c r="E375" s="7"/>
+      <c r="E375" s="6"/>
       <c r="F375" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
-      <c r="C376" s="7"/>
+      <c r="C376" s="6"/>
       <c r="D376" s="3"/>
-      <c r="E376" s="7"/>
+      <c r="E376" s="6"/>
       <c r="F376" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
-      <c r="C377" s="7"/>
+      <c r="C377" s="6"/>
       <c r="D377" s="3"/>
-      <c r="E377" s="7"/>
+      <c r="E377" s="6"/>
       <c r="F377" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
-      <c r="C378" s="7"/>
+      <c r="C378" s="6"/>
       <c r="D378" s="3"/>
-      <c r="E378" s="7"/>
+      <c r="E378" s="6"/>
       <c r="F378" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
-      <c r="C379" s="7"/>
+      <c r="C379" s="6"/>
       <c r="D379" s="3"/>
-      <c r="E379" s="7"/>
+      <c r="E379" s="6"/>
       <c r="F379" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
-      <c r="C380" s="7"/>
+      <c r="C380" s="6"/>
       <c r="D380" s="3"/>
-      <c r="E380" s="7"/>
+      <c r="E380" s="6"/>
       <c r="F380" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
-      <c r="C381" s="7"/>
+      <c r="C381" s="6"/>
       <c r="D381" s="3"/>
-      <c r="E381" s="7"/>
+      <c r="E381" s="6"/>
       <c r="F381" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
-      <c r="C382" s="7"/>
+      <c r="C382" s="6"/>
       <c r="D382" s="3"/>
-      <c r="E382" s="7"/>
+      <c r="E382" s="6"/>
       <c r="F382" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
-      <c r="C383" s="7"/>
+      <c r="C383" s="6"/>
       <c r="D383" s="3"/>
-      <c r="E383" s="7"/>
+      <c r="E383" s="6"/>
       <c r="F383" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
-      <c r="C384" s="7"/>
+      <c r="C384" s="6"/>
       <c r="D384" s="3"/>
-      <c r="E384" s="7"/>
+      <c r="E384" s="6"/>
       <c r="F384" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
-      <c r="C385" s="7"/>
+      <c r="C385" s="6"/>
       <c r="D385" s="3"/>
-      <c r="E385" s="7"/>
+      <c r="E385" s="6"/>
       <c r="F385" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
-      <c r="C386" s="7"/>
+      <c r="C386" s="6"/>
       <c r="D386" s="3"/>
-      <c r="E386" s="7"/>
+      <c r="E386" s="6"/>
       <c r="F386" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
-      <c r="C387" s="7"/>
+      <c r="C387" s="6"/>
       <c r="D387" s="3"/>
-      <c r="E387" s="7"/>
+      <c r="E387" s="6"/>
       <c r="F387" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
-      <c r="C388" s="7"/>
+      <c r="C388" s="6"/>
       <c r="D388" s="3"/>
-      <c r="E388" s="7"/>
+      <c r="E388" s="6"/>
       <c r="F388" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
-      <c r="C389" s="7"/>
+      <c r="C389" s="6"/>
       <c r="D389" s="3"/>
-      <c r="E389" s="7"/>
+      <c r="E389" s="6"/>
       <c r="F389" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
-      <c r="C390" s="7"/>
+      <c r="C390" s="6"/>
       <c r="D390" s="3"/>
-      <c r="E390" s="7"/>
+      <c r="E390" s="6"/>
       <c r="F390" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
-      <c r="C391" s="7"/>
+      <c r="C391" s="6"/>
       <c r="D391" s="3"/>
-      <c r="E391" s="7"/>
+      <c r="E391" s="6"/>
       <c r="F391" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
-      <c r="C392" s="7"/>
+      <c r="C392" s="6"/>
       <c r="D392" s="3"/>
-      <c r="E392" s="7"/>
+      <c r="E392" s="6"/>
       <c r="F392" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
-      <c r="C393" s="7"/>
+      <c r="C393" s="6"/>
       <c r="D393" s="3"/>
-      <c r="E393" s="7"/>
+      <c r="E393" s="6"/>
       <c r="F393" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
-      <c r="C394" s="7"/>
+      <c r="C394" s="6"/>
       <c r="D394" s="3"/>
-      <c r="E394" s="7"/>
+      <c r="E394" s="6"/>
       <c r="F394" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
-      <c r="C395" s="7"/>
+      <c r="C395" s="6"/>
       <c r="D395" s="3"/>
-      <c r="E395" s="7"/>
+      <c r="E395" s="6"/>
       <c r="F395" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
-      <c r="C396" s="7"/>
+      <c r="C396" s="6"/>
       <c r="D396" s="3"/>
-      <c r="E396" s="7"/>
+      <c r="E396" s="6"/>
       <c r="F396" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
-      <c r="C397" s="7"/>
+      <c r="C397" s="6"/>
       <c r="D397" s="3"/>
-      <c r="E397" s="7"/>
+      <c r="E397" s="6"/>
       <c r="F397" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
-      <c r="C398" s="7"/>
+      <c r="C398" s="6"/>
       <c r="D398" s="3"/>
-      <c r="E398" s="7"/>
+      <c r="E398" s="6"/>
       <c r="F398" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
-      <c r="C399" s="7"/>
+      <c r="C399" s="6"/>
       <c r="D399" s="3"/>
-      <c r="E399" s="7"/>
+      <c r="E399" s="6"/>
       <c r="F399" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
-      <c r="C400" s="7"/>
+      <c r="C400" s="6"/>
       <c r="D400" s="3"/>
-      <c r="E400" s="7"/>
+      <c r="E400" s="6"/>
       <c r="F400" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
-      <c r="C401" s="7"/>
+      <c r="C401" s="6"/>
       <c r="D401" s="3"/>
-      <c r="E401" s="7"/>
+      <c r="E401" s="6"/>
       <c r="F401" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
-      <c r="C402" s="7"/>
+      <c r="C402" s="6"/>
       <c r="D402" s="3"/>
-      <c r="E402" s="7"/>
+      <c r="E402" s="6"/>
       <c r="F402" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
-      <c r="C403" s="7"/>
+      <c r="C403" s="6"/>
       <c r="D403" s="3"/>
-      <c r="E403" s="7"/>
+      <c r="E403" s="6"/>
       <c r="F403" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
-      <c r="C404" s="7"/>
+      <c r="C404" s="6"/>
       <c r="D404" s="3"/>
-      <c r="E404" s="7"/>
+      <c r="E404" s="6"/>
       <c r="F404" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
-      <c r="C405" s="7"/>
+      <c r="C405" s="6"/>
       <c r="D405" s="3"/>
-      <c r="E405" s="7"/>
+      <c r="E405" s="6"/>
       <c r="F405" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
-      <c r="C406" s="7"/>
+      <c r="C406" s="6"/>
       <c r="D406" s="3"/>
-      <c r="E406" s="7"/>
+      <c r="E406" s="6"/>
       <c r="F406" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
-      <c r="C407" s="7"/>
+      <c r="C407" s="6"/>
       <c r="D407" s="3"/>
-      <c r="E407" s="7"/>
+      <c r="E407" s="6"/>
       <c r="F407" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
-      <c r="C408" s="7"/>
+      <c r="C408" s="6"/>
       <c r="D408" s="3"/>
-      <c r="E408" s="7"/>
+      <c r="E408" s="6"/>
       <c r="F408" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
-      <c r="C409" s="7"/>
+      <c r="C409" s="6"/>
       <c r="D409" s="3"/>
-      <c r="E409" s="7"/>
+      <c r="E409" s="6"/>
       <c r="F409" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
-      <c r="C410" s="7"/>
+      <c r="C410" s="6"/>
       <c r="D410" s="3"/>
-      <c r="E410" s="7"/>
+      <c r="E410" s="6"/>
       <c r="F410" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
-      <c r="C411" s="7"/>
+      <c r="C411" s="6"/>
       <c r="D411" s="3"/>
-      <c r="E411" s="7"/>
+      <c r="E411" s="6"/>
       <c r="F411" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
-      <c r="C412" s="7"/>
+      <c r="C412" s="6"/>
       <c r="D412" s="3"/>
-      <c r="E412" s="7"/>
+      <c r="E412" s="6"/>
       <c r="F412" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
-      <c r="C413" s="7"/>
+      <c r="C413" s="6"/>
       <c r="D413" s="3"/>
-      <c r="E413" s="7"/>
+      <c r="E413" s="6"/>
       <c r="F413" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
-      <c r="C414" s="7"/>
+      <c r="C414" s="6"/>
       <c r="D414" s="3"/>
-      <c r="E414" s="7"/>
+      <c r="E414" s="6"/>
       <c r="F414" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
-      <c r="C415" s="7"/>
+      <c r="C415" s="6"/>
       <c r="D415" s="3"/>
-      <c r="E415" s="7"/>
+      <c r="E415" s="6"/>
       <c r="F415" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
-      <c r="C416" s="7"/>
+      <c r="C416" s="6"/>
       <c r="D416" s="3"/>
-      <c r="E416" s="7"/>
+      <c r="E416" s="6"/>
       <c r="F416" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
-      <c r="C417" s="7"/>
+      <c r="C417" s="6"/>
       <c r="D417" s="3"/>
-      <c r="E417" s="7"/>
+      <c r="E417" s="6"/>
       <c r="F417" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
-      <c r="C418" s="7"/>
+      <c r="C418" s="6"/>
       <c r="D418" s="3"/>
-      <c r="E418" s="7"/>
+      <c r="E418" s="6"/>
       <c r="F418" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
-      <c r="C419" s="7"/>
+      <c r="C419" s="6"/>
       <c r="D419" s="3"/>
-      <c r="E419" s="7"/>
+      <c r="E419" s="6"/>
       <c r="F419" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
-      <c r="C420" s="7"/>
+      <c r="C420" s="6"/>
       <c r="D420" s="3"/>
-      <c r="E420" s="7"/>
+      <c r="E420" s="6"/>
       <c r="F420" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
-      <c r="C421" s="7"/>
+      <c r="C421" s="6"/>
       <c r="D421" s="3"/>
-      <c r="E421" s="7"/>
+      <c r="E421" s="6"/>
       <c r="F421" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
-      <c r="C422" s="7"/>
+      <c r="C422" s="6"/>
       <c r="D422" s="3"/>
-      <c r="E422" s="7"/>
+      <c r="E422" s="6"/>
       <c r="F422" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
-      <c r="C423" s="7"/>
+      <c r="C423" s="6"/>
       <c r="D423" s="3"/>
-      <c r="E423" s="7"/>
+      <c r="E423" s="6"/>
       <c r="F423" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
-      <c r="C424" s="7"/>
+      <c r="C424" s="6"/>
       <c r="D424" s="3"/>
-      <c r="E424" s="7"/>
+      <c r="E424" s="6"/>
       <c r="F424" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
-      <c r="C425" s="7"/>
+      <c r="C425" s="6"/>
       <c r="D425" s="3"/>
-      <c r="E425" s="7"/>
+      <c r="E425" s="6"/>
       <c r="F425" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
-      <c r="C426" s="7"/>
+      <c r="C426" s="6"/>
       <c r="D426" s="3"/>
-      <c r="E426" s="7"/>
+      <c r="E426" s="6"/>
       <c r="F426" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
-      <c r="C427" s="7"/>
+      <c r="C427" s="6"/>
       <c r="D427" s="3"/>
-      <c r="E427" s="7"/>
+      <c r="E427" s="6"/>
       <c r="F427" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
-      <c r="C428" s="7"/>
+      <c r="C428" s="6"/>
       <c r="D428" s="3"/>
-      <c r="E428" s="7"/>
+      <c r="E428" s="6"/>
       <c r="F428" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
-      <c r="C429" s="7"/>
+      <c r="C429" s="6"/>
       <c r="D429" s="3"/>
-      <c r="E429" s="7"/>
+      <c r="E429" s="6"/>
       <c r="F429" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
-      <c r="C430" s="7"/>
+      <c r="C430" s="6"/>
       <c r="D430" s="3"/>
-      <c r="E430" s="7"/>
+      <c r="E430" s="6"/>
       <c r="F430" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
-      <c r="C431" s="7"/>
+      <c r="C431" s="6"/>
       <c r="D431" s="3"/>
-      <c r="E431" s="7"/>
+      <c r="E431" s="6"/>
       <c r="F431" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
-      <c r="C432" s="7"/>
+      <c r="C432" s="6"/>
       <c r="D432" s="3"/>
-      <c r="E432" s="7"/>
+      <c r="E432" s="6"/>
       <c r="F432" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
-      <c r="C433" s="7"/>
+      <c r="C433" s="6"/>
       <c r="D433" s="3"/>
-      <c r="E433" s="7"/>
+      <c r="E433" s="6"/>
       <c r="F433" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
-      <c r="C434" s="7"/>
+      <c r="C434" s="6"/>
       <c r="D434" s="3"/>
-      <c r="E434" s="7"/>
+      <c r="E434" s="6"/>
       <c r="F434" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
-      <c r="C435" s="7"/>
+      <c r="C435" s="6"/>
       <c r="D435" s="3"/>
-      <c r="E435" s="7"/>
+      <c r="E435" s="6"/>
       <c r="F435" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
-      <c r="C436" s="7"/>
+      <c r="C436" s="6"/>
       <c r="D436" s="3"/>
-      <c r="E436" s="7"/>
+      <c r="E436" s="6"/>
       <c r="F436" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
-      <c r="C437" s="7"/>
+      <c r="C437" s="6"/>
       <c r="D437" s="3"/>
-      <c r="E437" s="7"/>
+      <c r="E437" s="6"/>
       <c r="F437" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
-      <c r="C438" s="7"/>
+      <c r="C438" s="6"/>
       <c r="D438" s="3"/>
-      <c r="E438" s="7"/>
+      <c r="E438" s="6"/>
       <c r="F438" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
-      <c r="C439" s="7"/>
+      <c r="C439" s="6"/>
       <c r="D439" s="3"/>
-      <c r="E439" s="7"/>
+      <c r="E439" s="6"/>
       <c r="F439" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
-      <c r="C440" s="7"/>
+      <c r="C440" s="6"/>
       <c r="D440" s="3"/>
-      <c r="E440" s="7"/>
+      <c r="E440" s="6"/>
       <c r="F440" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
-      <c r="C441" s="7"/>
+      <c r="C441" s="6"/>
       <c r="D441" s="3"/>
-      <c r="E441" s="7"/>
+      <c r="E441" s="6"/>
       <c r="F441" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
-      <c r="C442" s="7"/>
+      <c r="C442" s="6"/>
       <c r="D442" s="3"/>
-      <c r="E442" s="7"/>
+      <c r="E442" s="6"/>
       <c r="F442" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
-      <c r="C443" s="7"/>
+      <c r="C443" s="6"/>
       <c r="D443" s="3"/>
-      <c r="E443" s="7"/>
+      <c r="E443" s="6"/>
       <c r="F443" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
-      <c r="C444" s="7"/>
+      <c r="C444" s="6"/>
       <c r="D444" s="3"/>
-      <c r="E444" s="7"/>
+      <c r="E444" s="6"/>
       <c r="F444" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
-      <c r="C445" s="7"/>
+      <c r="C445" s="6"/>
       <c r="D445" s="3"/>
-      <c r="E445" s="7"/>
+      <c r="E445" s="6"/>
       <c r="F445" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
-      <c r="C446" s="7"/>
+      <c r="C446" s="6"/>
       <c r="D446" s="3"/>
-      <c r="E446" s="7"/>
+      <c r="E446" s="6"/>
       <c r="F446" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
-      <c r="C447" s="7"/>
+      <c r="C447" s="6"/>
       <c r="D447" s="3"/>
-      <c r="E447" s="7"/>
+      <c r="E447" s="6"/>
       <c r="F447" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
-      <c r="C448" s="7"/>
+      <c r="C448" s="6"/>
       <c r="D448" s="3"/>
-      <c r="E448" s="7"/>
+      <c r="E448" s="6"/>
       <c r="F448" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
-      <c r="C449" s="7"/>
+      <c r="C449" s="6"/>
       <c r="D449" s="3"/>
-      <c r="E449" s="7"/>
+      <c r="E449" s="6"/>
       <c r="F449" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
-      <c r="C450" s="7"/>
+      <c r="C450" s="6"/>
       <c r="D450" s="3"/>
-      <c r="E450" s="7"/>
+      <c r="E450" s="6"/>
       <c r="F450" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
-      <c r="C451" s="7"/>
+      <c r="C451" s="6"/>
       <c r="D451" s="3"/>
-      <c r="E451" s="7"/>
+      <c r="E451" s="6"/>
       <c r="F451" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
-      <c r="C452" s="7"/>
+      <c r="C452" s="6"/>
       <c r="D452" s="3"/>
-      <c r="E452" s="7"/>
+      <c r="E452" s="6"/>
       <c r="F452" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
-      <c r="C453" s="7"/>
+      <c r="C453" s="6"/>
       <c r="D453" s="3"/>
-      <c r="E453" s="7"/>
+      <c r="E453" s="6"/>
       <c r="F453" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
-      <c r="C454" s="7"/>
+      <c r="C454" s="6"/>
       <c r="D454" s="3"/>
-      <c r="E454" s="7"/>
+      <c r="E454" s="6"/>
       <c r="F454" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
-      <c r="C455" s="7"/>
+      <c r="C455" s="6"/>
       <c r="D455" s="3"/>
-      <c r="E455" s="7"/>
+      <c r="E455" s="6"/>
       <c r="F455" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
-      <c r="C456" s="7"/>
+      <c r="C456" s="6"/>
       <c r="D456" s="3"/>
-      <c r="E456" s="7"/>
+      <c r="E456" s="6"/>
       <c r="F456" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
-      <c r="C457" s="7"/>
+      <c r="C457" s="6"/>
       <c r="D457" s="3"/>
-      <c r="E457" s="7"/>
+      <c r="E457" s="6"/>
       <c r="F457" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
-      <c r="C458" s="7"/>
+      <c r="C458" s="6"/>
       <c r="D458" s="3"/>
-      <c r="E458" s="7"/>
+      <c r="E458" s="6"/>
       <c r="F458" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
-      <c r="C459" s="7"/>
+      <c r="C459" s="6"/>
       <c r="D459" s="3"/>
-      <c r="E459" s="7"/>
+      <c r="E459" s="6"/>
       <c r="F459" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
-      <c r="C460" s="7"/>
+      <c r="C460" s="6"/>
       <c r="D460" s="3"/>
-      <c r="E460" s="7"/>
+      <c r="E460" s="6"/>
       <c r="F460" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
-      <c r="C461" s="7"/>
+      <c r="C461" s="6"/>
       <c r="D461" s="3"/>
-      <c r="E461" s="7"/>
+      <c r="E461" s="6"/>
       <c r="F461" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
-      <c r="C462" s="7"/>
+      <c r="C462" s="6"/>
       <c r="D462" s="3"/>
-      <c r="E462" s="7"/>
+      <c r="E462" s="6"/>
       <c r="F462" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
-      <c r="C463" s="7"/>
+      <c r="C463" s="6"/>
       <c r="D463" s="3"/>
-      <c r="E463" s="7"/>
+      <c r="E463" s="6"/>
       <c r="F463" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
-      <c r="C464" s="7"/>
+      <c r="C464" s="6"/>
       <c r="D464" s="3"/>
-      <c r="E464" s="7"/>
+      <c r="E464" s="6"/>
       <c r="F464" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
-      <c r="C465" s="7"/>
+      <c r="C465" s="6"/>
       <c r="D465" s="3"/>
-      <c r="E465" s="7"/>
+      <c r="E465" s="6"/>
       <c r="F465" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
-      <c r="C466" s="7"/>
+      <c r="C466" s="6"/>
       <c r="D466" s="3"/>
-      <c r="E466" s="7"/>
+      <c r="E466" s="6"/>
       <c r="F466" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
-      <c r="C467" s="7"/>
+      <c r="C467" s="6"/>
       <c r="D467" s="3"/>
-      <c r="E467" s="7"/>
+      <c r="E467" s="6"/>
       <c r="F467" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
-      <c r="C468" s="7"/>
+      <c r="C468" s="6"/>
       <c r="D468" s="3"/>
-      <c r="E468" s="7"/>
+      <c r="E468" s="6"/>
       <c r="F468" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
-      <c r="C469" s="7"/>
+      <c r="C469" s="6"/>
       <c r="D469" s="3"/>
-      <c r="E469" s="7"/>
+      <c r="E469" s="6"/>
       <c r="F469" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
-      <c r="C470" s="7"/>
+      <c r="C470" s="6"/>
       <c r="D470" s="3"/>
-      <c r="E470" s="7"/>
+      <c r="E470" s="6"/>
       <c r="F470" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
-      <c r="C471" s="7"/>
+      <c r="C471" s="6"/>
       <c r="D471" s="3"/>
-      <c r="E471" s="7"/>
+      <c r="E471" s="6"/>
       <c r="F471" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
-      <c r="C472" s="7"/>
+      <c r="C472" s="6"/>
       <c r="D472" s="3"/>
-      <c r="E472" s="7"/>
+      <c r="E472" s="6"/>
       <c r="F472" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
-      <c r="C473" s="7"/>
+      <c r="C473" s="6"/>
       <c r="D473" s="3"/>
-      <c r="E473" s="7"/>
+      <c r="E473" s="6"/>
       <c r="F473" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
-      <c r="C474" s="7"/>
+      <c r="C474" s="6"/>
       <c r="D474" s="3"/>
-      <c r="E474" s="7"/>
+      <c r="E474" s="6"/>
       <c r="F474" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
-      <c r="C475" s="7"/>
+      <c r="C475" s="6"/>
       <c r="D475" s="3"/>
-      <c r="E475" s="7"/>
+      <c r="E475" s="6"/>
       <c r="F475" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
-      <c r="C476" s="7"/>
+      <c r="C476" s="6"/>
       <c r="D476" s="3"/>
-      <c r="E476" s="7"/>
+      <c r="E476" s="6"/>
       <c r="F476" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
-      <c r="C477" s="7"/>
+      <c r="C477" s="6"/>
       <c r="D477" s="3"/>
-      <c r="E477" s="7"/>
+      <c r="E477" s="6"/>
       <c r="F477" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
-      <c r="C478" s="7"/>
+      <c r="C478" s="6"/>
       <c r="D478" s="3"/>
-      <c r="E478" s="7"/>
+      <c r="E478" s="6"/>
       <c r="F478" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
-      <c r="C479" s="7"/>
+      <c r="C479" s="6"/>
       <c r="D479" s="3"/>
-      <c r="E479" s="7"/>
+      <c r="E479" s="6"/>
       <c r="F479" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
-      <c r="C480" s="7"/>
+      <c r="C480" s="6"/>
       <c r="D480" s="3"/>
-      <c r="E480" s="7"/>
+      <c r="E480" s="6"/>
       <c r="F480" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
-      <c r="C481" s="7"/>
+      <c r="C481" s="6"/>
       <c r="D481" s="3"/>
-      <c r="E481" s="7"/>
+      <c r="E481" s="6"/>
       <c r="F481" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
-      <c r="C482" s="7"/>
+      <c r="C482" s="6"/>
       <c r="D482" s="3"/>
-      <c r="E482" s="7"/>
+      <c r="E482" s="6"/>
       <c r="F482" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
-      <c r="C483" s="7"/>
+      <c r="C483" s="6"/>
       <c r="D483" s="3"/>
-      <c r="E483" s="7"/>
+      <c r="E483" s="6"/>
       <c r="F483" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
-      <c r="C484" s="7"/>
+      <c r="C484" s="6"/>
       <c r="D484" s="3"/>
-      <c r="E484" s="7"/>
+      <c r="E484" s="6"/>
       <c r="F484" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
-      <c r="C485" s="7"/>
+      <c r="C485" s="6"/>
       <c r="D485" s="3"/>
-      <c r="E485" s="7"/>
+      <c r="E485" s="6"/>
       <c r="F485" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
-      <c r="C486" s="7"/>
+      <c r="C486" s="6"/>
       <c r="D486" s="3"/>
-      <c r="E486" s="7"/>
+      <c r="E486" s="6"/>
       <c r="F486" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
-      <c r="C487" s="7"/>
+      <c r="C487" s="6"/>
       <c r="D487" s="3"/>
-      <c r="E487" s="7"/>
+      <c r="E487" s="6"/>
       <c r="F487" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
-      <c r="C488" s="7"/>
+      <c r="C488" s="6"/>
       <c r="D488" s="3"/>
-      <c r="E488" s="7"/>
+      <c r="E488" s="6"/>
       <c r="F488" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
-      <c r="C489" s="7"/>
+      <c r="C489" s="6"/>
       <c r="D489" s="3"/>
-      <c r="E489" s="7"/>
+      <c r="E489" s="6"/>
       <c r="F489" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
-      <c r="C490" s="7"/>
+      <c r="C490" s="6"/>
       <c r="D490" s="3"/>
-      <c r="E490" s="7"/>
+      <c r="E490" s="6"/>
       <c r="F490" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
-      <c r="C491" s="7"/>
+      <c r="C491" s="6"/>
       <c r="D491" s="3"/>
-      <c r="E491" s="7"/>
+      <c r="E491" s="6"/>
       <c r="F491" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
-      <c r="C492" s="7"/>
+      <c r="C492" s="6"/>
       <c r="D492" s="3"/>
-      <c r="E492" s="7"/>
+      <c r="E492" s="6"/>
       <c r="F492" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
-      <c r="C493" s="7"/>
+      <c r="C493" s="6"/>
       <c r="D493" s="3"/>
-      <c r="E493" s="7"/>
+      <c r="E493" s="6"/>
       <c r="F493" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
-      <c r="C494" s="7"/>
+      <c r="C494" s="6"/>
       <c r="D494" s="3"/>
-      <c r="E494" s="7"/>
+      <c r="E494" s="6"/>
       <c r="F494" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
-      <c r="C495" s="7"/>
+      <c r="C495" s="6"/>
       <c r="D495" s="3"/>
-      <c r="E495" s="7"/>
+      <c r="E495" s="6"/>
       <c r="F495" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
-      <c r="C496" s="7"/>
+      <c r="C496" s="6"/>
       <c r="D496" s="3"/>
-      <c r="E496" s="7"/>
+      <c r="E496" s="6"/>
       <c r="F496" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
-      <c r="C497" s="7"/>
+      <c r="C497" s="6"/>
       <c r="D497" s="3"/>
-      <c r="E497" s="7"/>
+      <c r="E497" s="6"/>
       <c r="F497" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
-      <c r="C498" s="7"/>
+      <c r="C498" s="6"/>
       <c r="D498" s="3"/>
-      <c r="E498" s="7"/>
+      <c r="E498" s="6"/>
       <c r="F498" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
-      <c r="C499" s="7"/>
+      <c r="C499" s="6"/>
       <c r="D499" s="3"/>
-      <c r="E499" s="7"/>
+      <c r="E499" s="6"/>
       <c r="F499" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
-      <c r="C500" s="7"/>
+      <c r="C500" s="6"/>
       <c r="D500" s="3"/>
-      <c r="E500" s="7"/>
+      <c r="E500" s="6"/>
       <c r="F500" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
-      <c r="C501" s="7"/>
+      <c r="C501" s="6"/>
       <c r="D501" s="3"/>
-      <c r="E501" s="7"/>
+      <c r="E501" s="6"/>
       <c r="F501" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
-      <c r="C502" s="7"/>
+      <c r="C502" s="6"/>
       <c r="D502" s="3"/>
-      <c r="E502" s="7"/>
+      <c r="E502" s="6"/>
       <c r="F502" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
-      <c r="C503" s="7"/>
+      <c r="C503" s="6"/>
       <c r="D503" s="3"/>
-      <c r="E503" s="7"/>
+      <c r="E503" s="6"/>
       <c r="F503" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
-      <c r="C504" s="7"/>
+      <c r="C504" s="6"/>
       <c r="D504" s="3"/>
-      <c r="E504" s="7"/>
+      <c r="E504" s="6"/>
       <c r="F504" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
-      <c r="C505" s="7"/>
+      <c r="C505" s="6"/>
       <c r="D505" s="3"/>
-      <c r="E505" s="7"/>
+      <c r="E505" s="6"/>
       <c r="F505" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
-      <c r="C506" s="7"/>
+      <c r="C506" s="6"/>
       <c r="D506" s="3"/>
-      <c r="E506" s="7"/>
+      <c r="E506" s="6"/>
       <c r="F506" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
-      <c r="C507" s="7"/>
+      <c r="C507" s="6"/>
       <c r="D507" s="3"/>
-      <c r="E507" s="7"/>
+      <c r="E507" s="6"/>
       <c r="F507" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
-      <c r="C508" s="7"/>
+      <c r="C508" s="6"/>
       <c r="D508" s="3"/>
-      <c r="E508" s="7"/>
+      <c r="E508" s="6"/>
       <c r="F508" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
-      <c r="C509" s="7"/>
+      <c r="C509" s="6"/>
       <c r="D509" s="3"/>
-      <c r="E509" s="7"/>
+      <c r="E509" s="6"/>
       <c r="F509" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
-      <c r="C510" s="7"/>
+      <c r="C510" s="6"/>
       <c r="D510" s="3"/>
-      <c r="E510" s="7"/>
+      <c r="E510" s="6"/>
       <c r="F510" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
-      <c r="C511" s="7"/>
+      <c r="C511" s="6"/>
       <c r="D511" s="3"/>
-      <c r="E511" s="7"/>
+      <c r="E511" s="6"/>
       <c r="F511" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
-      <c r="C512" s="7"/>
+      <c r="C512" s="6"/>
       <c r="D512" s="3"/>
-      <c r="E512" s="7"/>
+      <c r="E512" s="6"/>
       <c r="F512" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
-      <c r="C513" s="7"/>
+      <c r="C513" s="6"/>
       <c r="D513" s="3"/>
-      <c r="E513" s="7"/>
+      <c r="E513" s="6"/>
       <c r="F513" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
-      <c r="C514" s="7"/>
+      <c r="C514" s="6"/>
       <c r="D514" s="3"/>
-      <c r="E514" s="7"/>
+      <c r="E514" s="6"/>
       <c r="F514" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
-      <c r="C515" s="7"/>
+      <c r="C515" s="6"/>
       <c r="D515" s="3"/>
-      <c r="E515" s="7"/>
+      <c r="E515" s="6"/>
       <c r="F515" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
-      <c r="C516" s="7"/>
+      <c r="C516" s="6"/>
       <c r="D516" s="3"/>
-      <c r="E516" s="7"/>
+      <c r="E516" s="6"/>
       <c r="F516" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
-      <c r="C517" s="7"/>
+      <c r="C517" s="6"/>
       <c r="D517" s="3"/>
-      <c r="E517" s="7"/>
+      <c r="E517" s="6"/>
       <c r="F517" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
-      <c r="C518" s="7"/>
+      <c r="C518" s="6"/>
       <c r="D518" s="3"/>
-      <c r="E518" s="7"/>
+      <c r="E518" s="6"/>
       <c r="F518" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
-      <c r="C519" s="7"/>
+      <c r="C519" s="6"/>
       <c r="D519" s="3"/>
-      <c r="E519" s="7"/>
+      <c r="E519" s="6"/>
       <c r="F519" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
-      <c r="C520" s="7"/>
+      <c r="C520" s="6"/>
       <c r="D520" s="3"/>
-      <c r="E520" s="7"/>
+      <c r="E520" s="6"/>
       <c r="F520" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
-      <c r="C521" s="7"/>
+      <c r="C521" s="6"/>
       <c r="D521" s="3"/>
-      <c r="E521" s="7"/>
+      <c r="E521" s="6"/>
       <c r="F521" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
-      <c r="C522" s="7"/>
+      <c r="C522" s="6"/>
       <c r="D522" s="3"/>
-      <c r="E522" s="7"/>
+      <c r="E522" s="6"/>
       <c r="F522" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
-      <c r="C523" s="7"/>
+      <c r="C523" s="6"/>
       <c r="D523" s="3"/>
-      <c r="E523" s="7"/>
+      <c r="E523" s="6"/>
       <c r="F523" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
-      <c r="C524" s="7"/>
+      <c r="C524" s="6"/>
       <c r="D524" s="3"/>
-      <c r="E524" s="7"/>
+      <c r="E524" s="6"/>
       <c r="F524" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
-      <c r="C525" s="7"/>
+      <c r="C525" s="6"/>
       <c r="D525" s="3"/>
-      <c r="E525" s="7"/>
+      <c r="E525" s="6"/>
       <c r="F525" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
-      <c r="C526" s="7"/>
+      <c r="C526" s="6"/>
       <c r="D526" s="3"/>
-      <c r="E526" s="7"/>
+      <c r="E526" s="6"/>
       <c r="F526" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
-      <c r="C527" s="7"/>
+      <c r="C527" s="6"/>
       <c r="D527" s="3"/>
-      <c r="E527" s="7"/>
+      <c r="E527" s="6"/>
       <c r="F527" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
-      <c r="C528" s="7"/>
+      <c r="C528" s="6"/>
       <c r="D528" s="3"/>
-      <c r="E528" s="7"/>
+      <c r="E528" s="6"/>
       <c r="F528" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
-      <c r="C529" s="7"/>
+      <c r="C529" s="6"/>
       <c r="D529" s="3"/>
-      <c r="E529" s="7"/>
+      <c r="E529" s="6"/>
       <c r="F529" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
-      <c r="C530" s="7"/>
+      <c r="C530" s="6"/>
       <c r="D530" s="3"/>
-      <c r="E530" s="7"/>
+      <c r="E530" s="6"/>
       <c r="F530" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
-      <c r="C531" s="7"/>
+      <c r="C531" s="6"/>
       <c r="D531" s="3"/>
-      <c r="E531" s="7"/>
+      <c r="E531" s="6"/>
       <c r="F531" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
-      <c r="C532" s="7"/>
+      <c r="C532" s="6"/>
       <c r="D532" s="3"/>
-      <c r="E532" s="7"/>
+      <c r="E532" s="6"/>
       <c r="F532" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
-      <c r="C533" s="7"/>
+      <c r="C533" s="6"/>
       <c r="D533" s="3"/>
-      <c r="E533" s="7"/>
+      <c r="E533" s="6"/>
       <c r="F533" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
-      <c r="C534" s="7"/>
+      <c r="C534" s="6"/>
       <c r="D534" s="3"/>
-      <c r="E534" s="7"/>
+      <c r="E534" s="6"/>
       <c r="F534" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
-      <c r="C535" s="7"/>
+      <c r="C535" s="6"/>
       <c r="D535" s="3"/>
-      <c r="E535" s="7"/>
+      <c r="E535" s="6"/>
       <c r="F535" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
-      <c r="C536" s="7"/>
+      <c r="C536" s="6"/>
       <c r="D536" s="3"/>
-      <c r="E536" s="7"/>
+      <c r="E536" s="6"/>
       <c r="F536" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
-      <c r="C537" s="7"/>
+      <c r="C537" s="6"/>
       <c r="D537" s="3"/>
-      <c r="E537" s="7"/>
+      <c r="E537" s="6"/>
       <c r="F537" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
-      <c r="C538" s="7"/>
+      <c r="C538" s="6"/>
       <c r="D538" s="3"/>
-      <c r="E538" s="7"/>
+      <c r="E538" s="6"/>
       <c r="F538" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
-      <c r="C539" s="7"/>
+      <c r="C539" s="6"/>
       <c r="D539" s="3"/>
-      <c r="E539" s="7"/>
+      <c r="E539" s="6"/>
       <c r="F539" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
-      <c r="C540" s="7"/>
+      <c r="C540" s="6"/>
       <c r="D540" s="3"/>
-      <c r="E540" s="7"/>
+      <c r="E540" s="6"/>
       <c r="F540" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
-      <c r="C541" s="7"/>
+      <c r="C541" s="6"/>
       <c r="D541" s="3"/>
-      <c r="E541" s="7"/>
+      <c r="E541" s="6"/>
       <c r="F541" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
-      <c r="C542" s="7"/>
+      <c r="C542" s="6"/>
       <c r="D542" s="3"/>
-      <c r="E542" s="7"/>
+      <c r="E542" s="6"/>
       <c r="F542" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
-      <c r="C543" s="7"/>
+      <c r="C543" s="6"/>
       <c r="D543" s="3"/>
-      <c r="E543" s="7"/>
+      <c r="E543" s="6"/>
       <c r="F543" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
-      <c r="C544" s="7"/>
+      <c r="C544" s="6"/>
       <c r="D544" s="3"/>
-      <c r="E544" s="7"/>
+      <c r="E544" s="6"/>
       <c r="F544" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
-      <c r="C545" s="7"/>
+      <c r="C545" s="6"/>
       <c r="D545" s="3"/>
-      <c r="E545" s="7"/>
+      <c r="E545" s="6"/>
       <c r="F545" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
-      <c r="C546" s="7"/>
+      <c r="C546" s="6"/>
       <c r="D546" s="3"/>
-      <c r="E546" s="7"/>
+      <c r="E546" s="6"/>
       <c r="F546" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
-      <c r="C547" s="7"/>
+      <c r="C547" s="6"/>
       <c r="D547" s="3"/>
-      <c r="E547" s="7"/>
+      <c r="E547" s="6"/>
       <c r="F547" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
-      <c r="C548" s="7"/>
+      <c r="C548" s="6"/>
       <c r="D548" s="3"/>
-      <c r="E548" s="7"/>
+      <c r="E548" s="6"/>
       <c r="F548" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
-      <c r="C549" s="7"/>
+      <c r="C549" s="6"/>
       <c r="D549" s="3"/>
-      <c r="E549" s="7"/>
+      <c r="E549" s="6"/>
       <c r="F549" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
-      <c r="C550" s="7"/>
+      <c r="C550" s="6"/>
       <c r="D550" s="3"/>
-      <c r="E550" s="7"/>
+      <c r="E550" s="6"/>
       <c r="F550" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
-      <c r="C551" s="7"/>
+      <c r="C551" s="6"/>
       <c r="D551" s="3"/>
-      <c r="E551" s="7"/>
+      <c r="E551" s="6"/>
       <c r="F551" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
-      <c r="C552" s="7"/>
+      <c r="C552" s="6"/>
       <c r="D552" s="3"/>
-      <c r="E552" s="7"/>
+      <c r="E552" s="6"/>
       <c r="F552" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
-      <c r="C553" s="7"/>
+      <c r="C553" s="6"/>
       <c r="D553" s="3"/>
-      <c r="E553" s="7"/>
+      <c r="E553" s="6"/>
       <c r="F553" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
-      <c r="C554" s="7"/>
+      <c r="C554" s="6"/>
       <c r="D554" s="3"/>
-      <c r="E554" s="7"/>
+      <c r="E554" s="6"/>
       <c r="F554" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
-      <c r="C555" s="7"/>
+      <c r="C555" s="6"/>
       <c r="D555" s="3"/>
-      <c r="E555" s="7"/>
+      <c r="E555" s="6"/>
       <c r="F555" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
-      <c r="C556" s="7"/>
+      <c r="C556" s="6"/>
       <c r="D556" s="3"/>
-      <c r="E556" s="7"/>
+      <c r="E556" s="6"/>
       <c r="F556" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
-      <c r="C557" s="7"/>
+      <c r="C557" s="6"/>
       <c r="D557" s="3"/>
-      <c r="E557" s="7"/>
+      <c r="E557" s="6"/>
       <c r="F557" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
-      <c r="C558" s="7"/>
+      <c r="C558" s="6"/>
       <c r="D558" s="3"/>
-      <c r="E558" s="7"/>
+      <c r="E558" s="6"/>
       <c r="F558" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
-      <c r="C559" s="7"/>
+      <c r="C559" s="6"/>
       <c r="D559" s="3"/>
-      <c r="E559" s="7"/>
+      <c r="E559" s="6"/>
       <c r="F559" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
-      <c r="C560" s="7"/>
+      <c r="C560" s="6"/>
       <c r="D560" s="3"/>
-      <c r="E560" s="7"/>
+      <c r="E560" s="6"/>
       <c r="F560" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
-      <c r="C561" s="7"/>
+      <c r="C561" s="6"/>
       <c r="D561" s="3"/>
-      <c r="E561" s="7"/>
+      <c r="E561" s="6"/>
       <c r="F561" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
-      <c r="C562" s="7"/>
+      <c r="C562" s="6"/>
       <c r="D562" s="3"/>
-      <c r="E562" s="7"/>
+      <c r="E562" s="6"/>
       <c r="F562" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
-      <c r="C563" s="7"/>
+      <c r="C563" s="6"/>
       <c r="D563" s="3"/>
-      <c r="E563" s="7"/>
+      <c r="E563" s="6"/>
       <c r="F563" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
-      <c r="C564" s="7"/>
+      <c r="C564" s="6"/>
       <c r="D564" s="3"/>
-      <c r="E564" s="7"/>
+      <c r="E564" s="6"/>
       <c r="F564" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
-      <c r="C565" s="7"/>
+      <c r="C565" s="6"/>
       <c r="D565" s="3"/>
-      <c r="E565" s="7"/>
+      <c r="E565" s="6"/>
       <c r="F565" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
-      <c r="C566" s="7"/>
+      <c r="C566" s="6"/>
       <c r="D566" s="3"/>
-      <c r="E566" s="7"/>
+      <c r="E566" s="6"/>
       <c r="F566" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
-      <c r="C567" s="7"/>
+      <c r="C567" s="6"/>
       <c r="D567" s="3"/>
-      <c r="E567" s="7"/>
+      <c r="E567" s="6"/>
       <c r="F567" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
-      <c r="C568" s="7"/>
+      <c r="C568" s="6"/>
       <c r="D568" s="3"/>
-      <c r="E568" s="7"/>
+      <c r="E568" s="6"/>
       <c r="F568" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
-      <c r="C569" s="7"/>
+      <c r="C569" s="6"/>
       <c r="D569" s="3"/>
-      <c r="E569" s="7"/>
+      <c r="E569" s="6"/>
       <c r="F569" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
-      <c r="C570" s="7"/>
+      <c r="C570" s="6"/>
       <c r="D570" s="3"/>
-      <c r="E570" s="7"/>
+      <c r="E570" s="6"/>
       <c r="F570" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
-      <c r="C571" s="7"/>
+      <c r="C571" s="6"/>
       <c r="D571" s="3"/>
-      <c r="E571" s="7"/>
+      <c r="E571" s="6"/>
       <c r="F571" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
-      <c r="C572" s="7"/>
+      <c r="C572" s="6"/>
       <c r="D572" s="3"/>
-      <c r="E572" s="7"/>
+      <c r="E572" s="6"/>
       <c r="F572" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
-      <c r="C573" s="7"/>
+      <c r="C573" s="6"/>
       <c r="D573" s="3"/>
-      <c r="E573" s="7"/>
+      <c r="E573" s="6"/>
       <c r="F573" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
-      <c r="C574" s="7"/>
+      <c r="C574" s="6"/>
       <c r="D574" s="3"/>
-      <c r="E574" s="7"/>
+      <c r="E574" s="6"/>
       <c r="F574" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
-      <c r="C575" s="7"/>
+      <c r="C575" s="6"/>
       <c r="D575" s="3"/>
-      <c r="E575" s="7"/>
+      <c r="E575" s="6"/>
       <c r="F575" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
-      <c r="C576" s="7"/>
+      <c r="C576" s="6"/>
       <c r="D576" s="3"/>
-      <c r="E576" s="7"/>
+      <c r="E576" s="6"/>
       <c r="F576" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
-      <c r="C577" s="7"/>
+      <c r="C577" s="6"/>
       <c r="D577" s="3"/>
-      <c r="E577" s="7"/>
+      <c r="E577" s="6"/>
       <c r="F577" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
-      <c r="C578" s="7"/>
+      <c r="C578" s="6"/>
       <c r="D578" s="3"/>
-      <c r="E578" s="7"/>
+      <c r="E578" s="6"/>
       <c r="F578" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
-      <c r="C579" s="7"/>
+      <c r="C579" s="6"/>
       <c r="D579" s="3"/>
-      <c r="E579" s="7"/>
+      <c r="E579" s="6"/>
       <c r="F579" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
-      <c r="C580" s="7"/>
+      <c r="C580" s="6"/>
       <c r="D580" s="3"/>
-      <c r="E580" s="7"/>
+      <c r="E580" s="6"/>
       <c r="F580" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
-      <c r="C581" s="7"/>
+      <c r="C581" s="6"/>
       <c r="D581" s="3"/>
-      <c r="E581" s="7"/>
+      <c r="E581" s="6"/>
       <c r="F581" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
-      <c r="C582" s="7"/>
+      <c r="C582" s="6"/>
       <c r="D582" s="3"/>
-      <c r="E582" s="7"/>
+      <c r="E582" s="6"/>
       <c r="F582" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
-      <c r="C583" s="7"/>
+      <c r="C583" s="6"/>
       <c r="D583" s="3"/>
-      <c r="E583" s="7"/>
+      <c r="E583" s="6"/>
       <c r="F583" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
-      <c r="C584" s="7"/>
+      <c r="C584" s="6"/>
       <c r="D584" s="3"/>
-      <c r="E584" s="7"/>
+      <c r="E584" s="6"/>
       <c r="F584" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
-      <c r="C585" s="7"/>
+      <c r="C585" s="6"/>
       <c r="D585" s="3"/>
-      <c r="E585" s="7"/>
+      <c r="E585" s="6"/>
       <c r="F585" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
-      <c r="C586" s="7"/>
+      <c r="C586" s="6"/>
       <c r="D586" s="3"/>
-      <c r="E586" s="7"/>
+      <c r="E586" s="6"/>
       <c r="F586" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
-      <c r="C587" s="7"/>
+      <c r="C587" s="6"/>
       <c r="D587" s="3"/>
-      <c r="E587" s="7"/>
+      <c r="E587" s="6"/>
       <c r="F587" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
-      <c r="C588" s="7"/>
+      <c r="C588" s="6"/>
       <c r="D588" s="3"/>
-      <c r="E588" s="7"/>
+      <c r="E588" s="6"/>
       <c r="F588" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
-      <c r="C589" s="7"/>
+      <c r="C589" s="6"/>
       <c r="D589" s="3"/>
-      <c r="E589" s="7"/>
+      <c r="E589" s="6"/>
       <c r="F589" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
-      <c r="C590" s="7"/>
+      <c r="C590" s="6"/>
       <c r="D590" s="3"/>
-      <c r="E590" s="7"/>
+      <c r="E590" s="6"/>
       <c r="F590" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
-      <c r="C591" s="7"/>
+      <c r="C591" s="6"/>
       <c r="D591" s="3"/>
-      <c r="E591" s="7"/>
+      <c r="E591" s="6"/>
       <c r="F591" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
-      <c r="C592" s="7"/>
+      <c r="C592" s="6"/>
       <c r="D592" s="3"/>
-      <c r="E592" s="7"/>
+      <c r="E592" s="6"/>
       <c r="F592" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
-      <c r="C593" s="7"/>
+      <c r="C593" s="6"/>
       <c r="D593" s="3"/>
-      <c r="E593" s="7"/>
+      <c r="E593" s="6"/>
       <c r="F593" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
-      <c r="C594" s="7"/>
+      <c r="C594" s="6"/>
       <c r="D594" s="3"/>
-      <c r="E594" s="7"/>
+      <c r="E594" s="6"/>
       <c r="F594" s="3"/>
     </row>
   </sheetData>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>User Story</t>
   </si>
@@ -651,7 +651,7 @@
     <col min="6" max="6" style="8" width="60.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="60.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -701,14 +701,16 @@
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
@@ -720,14 +722,16 @@
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="46.5" customFormat="1" s="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -748,7 +752,9 @@
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
@@ -760,7 +766,9 @@
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
@@ -802,7 +810,9 @@
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
@@ -814,7 +824,9 @@
       <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>31</v>
       </c>

--- a/etc/Acceptance Test Plan.xlsx
+++ b/etc/Acceptance Test Plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>User Story</t>
   </si>
@@ -124,6 +124,66 @@
   </si>
   <si>
     <t>Given that I am on the Needs page when there are needs in the cupboard, then I see a means to add each need to my funding basket</t>
+  </si>
+  <si>
+    <t>As a User I want to be able to search through needs to add/subtract from my cart so that I can checkout and make a purchase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GIVEN I add a **need **object to my cart WHEN I am logged in as a **user** THEN the system should take the **need** from the **cupboard** and add it to my **cart**, which saves with persistent storage.</t>
+  </si>
+  <si>
+    <t>GIVEN I add a **need** to my cart WHEN I am logged in as a **user** THEN the system should update the **cupboard** with the correct quantity left.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>GIVEN I remove a **need** object from my cart WHEN I am logged in as **user** THEN the system should take the **need** from my cart and put it back in the **cupboard**.</t>
+  </si>
+  <si>
+    <t>GIVEN I want to edit the catalog, WHEN I am shopping THEN the system should return an error since I do not have access</t>
+  </si>
+  <si>
+    <t>As a user I want to be able to log out and in so that my information is saved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GIVEN I want my information to be persistent WHEN I hit login/logout THEN the system should save the information and return a status code of 201 (PASS)</t>
+  </si>
+  <si>
+    <t>As an Admin I want to add/change/delete needs so that the cupboard can be updated.</t>
+  </si>
+  <si>
+    <t>GIVEN I edit a **need** to the **cupboard** WHEN I am logged in as **admin** THEN the **cupboard** should update the **need** with the correct name, price, and quantity,</t>
+  </si>
+  <si>
+    <t>ED 4/1/24</t>
+  </si>
+  <si>
+    <t>GIVEN I add a new **need** to the **cupboard** WHEN I am logged in as **admin** THEN the **cupboard** should create a new **need** with the correct name, price, and quantity.</t>
+  </si>
+  <si>
+    <t>GIVEN I remove a **need** from the **cupboard** WHEN I am logged in as **admin** THEN the **need** should be removed from the **cupboard**.</t>
+  </si>
+  <si>
+    <t>GIVEN a **user** makes a purchase WHEN I am logged in as **admin** THEN the **U-fund basket** should be updated with the correct amount of funds.</t>
+  </si>
+  <si>
+    <t>GIVEN a **user** is shopping WHEN I am logged in as **admin** THEN their **U-fund basket** should not be accessible to me.</t>
+  </si>
+  <si>
+    <t>As  a Helper I want to sort and filter needs SO THAT my inventory is has less results showing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GIVEN I sort and filter **needs **WHEN there are **needs** in the inventory THEN the system should return the list of **needs **under the filter and a status code of 201 (PASS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GIVEN I sort and filter **needs **WHEN there are **no needs** in the inventory THEN the system should return a status code of 409 (FAIL)</t>
+  </si>
+  <si>
+    <t>As an admin and helper, I want to hit dark mode / light mode button SO THAT my eyes don’t strain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GIVEN there's a dark mode toggle  WHEN the toggle is pressed THEN the website theme should switch from light mode to dark mode and vice versa</t>
   </si>
   <si>
     <t>Instructions</t>
@@ -244,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -265,6 +325,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -593,36 +659,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="106.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="106.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="10" t="s">
-        <v>33</v>
+      <c r="A1" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>36</v>
+      <c r="A3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>38</v>
+      <c r="A4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -643,12 +709,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="60.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="60.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="60.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="1">
@@ -745,7 +811,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="60.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="60" customFormat="1" s="1">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -847,105 +913,165 @@
       <c r="E13" s="6"/>
       <c r="F13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="78.75" customFormat="1" s="1">
+      <c r="A14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
       <c r="F14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="46.5" customFormat="1" s="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="50.25" customFormat="1" s="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
       <c r="F16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
       <c r="F17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="49.5" customFormat="1" s="1">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
       <c r="F18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="51" customFormat="1" s="1">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="50.25" customFormat="1" s="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="49.5" customFormat="1" s="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="45.75" customFormat="1" s="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="3"/>
       <c r="E22" s="6"/>
       <c r="F22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="45" customFormat="1" s="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="59.25" customFormat="1" s="1">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="3"/>
       <c r="E24" s="6"/>
       <c r="F24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="44.25" customFormat="1" s="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
       <c r="F25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="60.75" customFormat="1" s="1">
+      <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="3"/>
       <c r="E26" s="6"/>
